--- a/Data/Handrkov_raw.xlsx
+++ b/Data/Handrkov_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Svara\Desktop\Diplomka\Diplomka\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD674E9-3EBF-4FF0-BE12-4064B5C9EDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C42614C-AD4F-490A-B60C-1E3BCCEAAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7308" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7279" uniqueCount="747">
   <si>
     <t>id</t>
   </si>
@@ -1170,84 +1170,6 @@
   </si>
   <si>
     <t>cas_navstevy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 12:28:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 12:29:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:40:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 12:43:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:46:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:49:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:50:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:56:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:20:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:42:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:44:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:33:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:46:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:47:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:55:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 10:57:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:04:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:06:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:08:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.8.2022 11:22:00</t>
   </si>
   <si>
     <t>rok</t>
@@ -2406,7 +2328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2427,9 +2349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2803,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE687517-3DC2-4D65-864C-23A5E5EA63E7}">
   <dimension ref="A1:R610"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S597" sqref="S597"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2799,7 @@
         <v>165</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -8161,8 +8080,8 @@
         <f>60/12*4</f>
         <v>20</v>
       </c>
-      <c r="P93" s="2" t="s">
-        <v>378</v>
+      <c r="P93" s="7">
+        <v>44785.428472222222</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>167</v>
@@ -8219,8 +8138,8 @@
         <f t="shared" ref="O94:O96" si="9">60/12*4</f>
         <v>20</v>
       </c>
-      <c r="P94" s="2" t="s">
-        <v>379</v>
+      <c r="P94" s="7">
+        <v>44785.519444444442</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>167</v>
@@ -8277,8 +8196,8 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="P95" s="2" t="s">
-        <v>379</v>
+      <c r="P95" s="7">
+        <v>44785.519444444442</v>
       </c>
       <c r="Q95" s="1" t="s">
         <v>167</v>
@@ -8335,8 +8254,8 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="P96" s="2" t="s">
-        <v>380</v>
+      <c r="P96" s="7">
+        <v>44785.520138888889</v>
       </c>
       <c r="Q96" s="1" t="s">
         <v>167</v>
@@ -8393,8 +8312,8 @@
         <f>60/18*5</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="P97" s="2" t="s">
-        <v>381</v>
+      <c r="P97" s="7">
+        <v>44785.444444444445</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>167</v>
@@ -8451,8 +8370,8 @@
         <f t="shared" ref="O98:O101" si="10">60/18*5</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="P98" s="2" t="s">
-        <v>382</v>
+      <c r="P98" s="7">
+        <v>44785.529861111114</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>199</v>
@@ -8509,8 +8428,8 @@
         <f t="shared" si="10"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="P99" s="2" t="s">
-        <v>383</v>
+      <c r="P99" s="7">
+        <v>44785.448611111111</v>
       </c>
       <c r="Q99" s="1" t="s">
         <v>200</v>
@@ -8567,8 +8486,8 @@
         <f t="shared" si="10"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="P100" s="2" t="s">
-        <v>384</v>
+      <c r="P100" s="7">
+        <v>44785.450694444444</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>167</v>
@@ -8625,8 +8544,8 @@
         <f t="shared" si="10"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="P101" s="2" t="s">
-        <v>385</v>
+      <c r="P101" s="7">
+        <v>44785.451388888891</v>
       </c>
       <c r="Q101" s="1" t="s">
         <v>167</v>
@@ -8683,8 +8602,8 @@
         <f>60/11</f>
         <v>5.4545454545454541</v>
       </c>
-      <c r="P102" s="2" t="s">
-        <v>386</v>
+      <c r="P102" s="7">
+        <v>44785.455555555556</v>
       </c>
       <c r="Q102" s="1" t="s">
         <v>199</v>
@@ -8741,8 +8660,8 @@
         <f>60/11*6</f>
         <v>32.727272727272727</v>
       </c>
-      <c r="P103" s="2" t="s">
-        <v>387</v>
+      <c r="P103" s="7">
+        <v>44785.467361111114</v>
       </c>
       <c r="Q103" s="1" t="s">
         <v>167</v>
@@ -8799,8 +8718,8 @@
         <f t="shared" ref="O104:O108" si="11">60/11*6</f>
         <v>32.727272727272727</v>
       </c>
-      <c r="P104" s="2" t="s">
-        <v>388</v>
+      <c r="P104" s="7">
+        <v>44785.468055555553</v>
       </c>
       <c r="Q104" s="1" t="s">
         <v>167</v>
@@ -8857,8 +8776,8 @@
         <f t="shared" si="11"/>
         <v>32.727272727272727</v>
       </c>
-      <c r="P105" s="2" t="s">
-        <v>388</v>
+      <c r="P105" s="7">
+        <v>44785.468055555553</v>
       </c>
       <c r="Q105" s="1" t="s">
         <v>199</v>
@@ -8915,8 +8834,8 @@
         <f t="shared" si="11"/>
         <v>32.727272727272727</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>389</v>
+      <c r="P106" s="7">
+        <v>44785.469444444447</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>200</v>
@@ -8973,8 +8892,8 @@
         <f t="shared" si="11"/>
         <v>32.727272727272727</v>
       </c>
-      <c r="P107" s="2" t="s">
-        <v>390</v>
+      <c r="P107" s="7">
+        <v>44785.472222222219</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>200</v>
@@ -9031,8 +8950,8 @@
         <f t="shared" si="11"/>
         <v>32.727272727272727</v>
       </c>
-      <c r="P108" s="2" t="s">
-        <v>390</v>
+      <c r="P108" s="7">
+        <v>44785.472222222219</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>200</v>
@@ -9088,8 +9007,8 @@
       <c r="O109" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P109" s="2" t="s">
-        <v>391</v>
+      <c r="P109" s="7">
+        <v>44785.487500000003</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>167</v>
@@ -9145,8 +9064,8 @@
       <c r="O110" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P110" s="2" t="s">
-        <v>392</v>
+      <c r="P110" s="7">
+        <v>44785.488888888889</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>167</v>
@@ -9202,8 +9121,8 @@
       <c r="O111" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>393</v>
+      <c r="P111" s="7">
+        <v>44785.481249999997</v>
       </c>
       <c r="Q111" s="1" t="s">
         <v>167</v>
@@ -9259,8 +9178,8 @@
       <c r="O112" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P112" s="2" t="s">
-        <v>394</v>
+      <c r="P112" s="7">
+        <v>44785.490277777775</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>167</v>
@@ -9316,8 +9235,8 @@
       <c r="O113" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P113" s="2" t="s">
-        <v>395</v>
+      <c r="P113" s="7">
+        <v>44785.490972222222</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>199</v>
@@ -9373,7 +9292,7 @@
       <c r="O114" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P114" s="1" t="s">
+      <c r="P114" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q114" s="1" t="s">
@@ -9431,8 +9350,8 @@
         <f>60/22*7</f>
         <v>19.09090909090909</v>
       </c>
-      <c r="P115" s="2" t="s">
-        <v>396</v>
+      <c r="P115" s="7">
+        <v>44785.454861111109</v>
       </c>
       <c r="Q115" s="1" t="s">
         <v>167</v>
@@ -9489,8 +9408,8 @@
         <f t="shared" ref="O116:O121" si="12">60/22*7</f>
         <v>19.09090909090909</v>
       </c>
-      <c r="P116" s="2" t="s">
-        <v>397</v>
+      <c r="P116" s="7">
+        <v>44785.456250000003</v>
       </c>
       <c r="Q116" s="1" t="s">
         <v>167</v>
@@ -9547,8 +9466,8 @@
         <f t="shared" si="12"/>
         <v>19.09090909090909</v>
       </c>
-      <c r="P117" s="2" t="s">
-        <v>398</v>
+      <c r="P117" s="7">
+        <v>44785.458333333336</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>167</v>
@@ -9605,8 +9524,8 @@
         <f t="shared" si="12"/>
         <v>19.09090909090909</v>
       </c>
-      <c r="P118" s="2" t="s">
-        <v>399</v>
+      <c r="P118" s="7">
+        <v>44785.461111111108</v>
       </c>
       <c r="Q118" s="1" t="s">
         <v>167</v>
@@ -9663,8 +9582,8 @@
         <f t="shared" si="12"/>
         <v>19.09090909090909</v>
       </c>
-      <c r="P119" s="2" t="s">
-        <v>400</v>
+      <c r="P119" s="7">
+        <v>44785.462500000001</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>167</v>
@@ -9721,8 +9640,8 @@
         <f t="shared" si="12"/>
         <v>19.09090909090909</v>
       </c>
-      <c r="P120" s="2" t="s">
-        <v>401</v>
+      <c r="P120" s="7">
+        <v>44785.463888888888</v>
       </c>
       <c r="Q120" s="1" t="s">
         <v>200</v>
@@ -9779,8 +9698,8 @@
         <f t="shared" si="12"/>
         <v>19.09090909090909</v>
       </c>
-      <c r="P121" s="2" t="s">
-        <v>402</v>
+      <c r="P121" s="7">
+        <v>44785.46597222222</v>
       </c>
       <c r="Q121" s="1" t="s">
         <v>167</v>
@@ -9836,8 +9755,8 @@
       <c r="O122" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P122" s="2" t="s">
-        <v>403</v>
+      <c r="P122" s="7">
+        <v>44785.473611111112</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>167</v>
@@ -19443,7 +19362,7 @@
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>7</v>
@@ -19458,7 +19377,7 @@
         <v>50</v>
       </c>
       <c r="F294" s="1"/>
-      <c r="G294" s="8"/>
+      <c r="G294" s="1"/>
       <c r="H294" s="1" t="s">
         <v>167</v>
       </c>
@@ -19495,7 +19414,7 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>7</v>
@@ -19510,7 +19429,7 @@
         <v>50</v>
       </c>
       <c r="F295" s="1"/>
-      <c r="G295" s="8"/>
+      <c r="G295" s="1"/>
       <c r="H295" s="1" t="s">
         <v>167</v>
       </c>
@@ -19547,7 +19466,7 @@
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>7</v>
@@ -19562,7 +19481,7 @@
         <v>50</v>
       </c>
       <c r="F296" s="1"/>
-      <c r="G296" s="8"/>
+      <c r="G296" s="1"/>
       <c r="H296" s="1" t="s">
         <v>167</v>
       </c>
@@ -19599,7 +19518,7 @@
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>7</v>
@@ -19614,7 +19533,7 @@
         <v>50</v>
       </c>
       <c r="F297" s="1"/>
-      <c r="G297" s="8"/>
+      <c r="G297" s="1"/>
       <c r="H297" s="1" t="s">
         <v>167</v>
       </c>
@@ -19651,7 +19570,7 @@
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>7</v>
@@ -19666,7 +19585,7 @@
         <v>50</v>
       </c>
       <c r="F298" s="1"/>
-      <c r="G298" s="8"/>
+      <c r="G298" s="1"/>
       <c r="H298" s="1" t="s">
         <v>167</v>
       </c>
@@ -19703,7 +19622,7 @@
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>7</v>
@@ -19718,7 +19637,7 @@
         <v>50</v>
       </c>
       <c r="F299" s="1"/>
-      <c r="G299" s="8"/>
+      <c r="G299" s="1"/>
       <c r="H299" s="1" t="s">
         <v>167</v>
       </c>
@@ -19755,7 +19674,7 @@
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>7</v>
@@ -19770,7 +19689,7 @@
         <v>50</v>
       </c>
       <c r="F300" s="1"/>
-      <c r="G300" s="8"/>
+      <c r="G300" s="1"/>
       <c r="H300" s="1" t="s">
         <v>167</v>
       </c>
@@ -19807,7 +19726,7 @@
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>7</v>
@@ -19822,7 +19741,7 @@
         <v>50</v>
       </c>
       <c r="F301" s="1"/>
-      <c r="G301" s="8"/>
+      <c r="G301" s="1"/>
       <c r="H301" s="1" t="s">
         <v>167</v>
       </c>
@@ -19859,7 +19778,7 @@
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>7</v>
@@ -19874,7 +19793,7 @@
         <v>50</v>
       </c>
       <c r="F302" s="1"/>
-      <c r="G302" s="8"/>
+      <c r="G302" s="1"/>
       <c r="H302" s="1" t="s">
         <v>167</v>
       </c>
@@ -19911,7 +19830,7 @@
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>7</v>
@@ -19926,7 +19845,7 @@
         <v>50</v>
       </c>
       <c r="F303" s="1"/>
-      <c r="G303" s="8"/>
+      <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
         <v>167</v>
       </c>
@@ -19963,7 +19882,7 @@
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>7</v>
@@ -19978,7 +19897,7 @@
         <v>50</v>
       </c>
       <c r="F304" s="1"/>
-      <c r="G304" s="8"/>
+      <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
         <v>167</v>
       </c>
@@ -20015,7 +19934,7 @@
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>7</v>
@@ -20030,7 +19949,7 @@
         <v>50</v>
       </c>
       <c r="F305" s="1"/>
-      <c r="G305" s="8"/>
+      <c r="G305" s="1"/>
       <c r="H305" s="1" t="s">
         <v>167</v>
       </c>
@@ -20067,7 +19986,7 @@
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>7</v>
@@ -20082,7 +20001,7 @@
         <v>50</v>
       </c>
       <c r="F306" s="1"/>
-      <c r="G306" s="8"/>
+      <c r="G306" s="1"/>
       <c r="H306" s="1" t="s">
         <v>167</v>
       </c>
@@ -20119,7 +20038,7 @@
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>7</v>
@@ -20134,7 +20053,7 @@
         <v>50</v>
       </c>
       <c r="F307" s="1"/>
-      <c r="G307" s="8"/>
+      <c r="G307" s="1"/>
       <c r="H307" s="1" t="s">
         <v>167</v>
       </c>
@@ -20171,7 +20090,7 @@
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>7</v>
@@ -20186,7 +20105,7 @@
         <v>50</v>
       </c>
       <c r="F308" s="1"/>
-      <c r="G308" s="8"/>
+      <c r="G308" s="1"/>
       <c r="H308" s="1" t="s">
         <v>167</v>
       </c>
@@ -20223,7 +20142,7 @@
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>7</v>
@@ -20238,7 +20157,7 @@
         <v>50</v>
       </c>
       <c r="F309" s="1"/>
-      <c r="G309" s="8"/>
+      <c r="G309" s="1"/>
       <c r="H309" s="1" t="s">
         <v>167</v>
       </c>
@@ -20275,7 +20194,7 @@
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>7</v>
@@ -20290,7 +20209,7 @@
         <v>50</v>
       </c>
       <c r="F310" s="1"/>
-      <c r="G310" s="8"/>
+      <c r="G310" s="1"/>
       <c r="H310" s="1" t="s">
         <v>167</v>
       </c>
@@ -20327,7 +20246,7 @@
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>7</v>
@@ -20342,7 +20261,7 @@
         <v>50</v>
       </c>
       <c r="F311" s="1"/>
-      <c r="G311" s="8"/>
+      <c r="G311" s="1"/>
       <c r="H311" s="1" t="s">
         <v>167</v>
       </c>
@@ -20379,7 +20298,7 @@
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>7</v>
@@ -20394,7 +20313,7 @@
         <v>50</v>
       </c>
       <c r="F312" s="1"/>
-      <c r="G312" s="8"/>
+      <c r="G312" s="1"/>
       <c r="H312" s="1" t="s">
         <v>167</v>
       </c>
@@ -20431,7 +20350,7 @@
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>7</v>
@@ -20446,7 +20365,7 @@
         <v>50</v>
       </c>
       <c r="F313" s="1"/>
-      <c r="G313" s="8"/>
+      <c r="G313" s="1"/>
       <c r="H313" s="1" t="s">
         <v>167</v>
       </c>
@@ -20483,7 +20402,7 @@
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>7</v>
@@ -20498,7 +20417,7 @@
         <v>50</v>
       </c>
       <c r="F314" s="1"/>
-      <c r="G314" s="8"/>
+      <c r="G314" s="1"/>
       <c r="H314" s="1" t="s">
         <v>167</v>
       </c>
@@ -20535,7 +20454,7 @@
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>7</v>
@@ -20550,7 +20469,7 @@
         <v>50</v>
       </c>
       <c r="F315" s="1"/>
-      <c r="G315" s="8"/>
+      <c r="G315" s="1"/>
       <c r="H315" s="1" t="s">
         <v>167</v>
       </c>
@@ -20587,7 +20506,7 @@
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>7</v>
@@ -20602,7 +20521,7 @@
         <v>50</v>
       </c>
       <c r="F316" s="1"/>
-      <c r="G316" s="8"/>
+      <c r="G316" s="1"/>
       <c r="H316" s="1" t="s">
         <v>167</v>
       </c>
@@ -20639,7 +20558,7 @@
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>7</v>
@@ -20654,7 +20573,7 @@
         <v>50</v>
       </c>
       <c r="F317" s="1"/>
-      <c r="G317" s="8"/>
+      <c r="G317" s="1"/>
       <c r="H317" s="1" t="s">
         <v>167</v>
       </c>
@@ -20691,7 +20610,7 @@
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>7</v>
@@ -20706,7 +20625,7 @@
         <v>50</v>
       </c>
       <c r="F318" s="1"/>
-      <c r="G318" s="8"/>
+      <c r="G318" s="1"/>
       <c r="H318" s="1" t="s">
         <v>167</v>
       </c>
@@ -20743,7 +20662,7 @@
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>7</v>
@@ -20758,7 +20677,7 @@
         <v>50</v>
       </c>
       <c r="F319" s="1"/>
-      <c r="G319" s="8"/>
+      <c r="G319" s="1"/>
       <c r="H319" s="1" t="s">
         <v>167</v>
       </c>
@@ -20795,7 +20714,7 @@
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>7</v>
@@ -20810,7 +20729,7 @@
         <v>50</v>
       </c>
       <c r="F320" s="1"/>
-      <c r="G320" s="8"/>
+      <c r="G320" s="1"/>
       <c r="H320" s="1" t="s">
         <v>167</v>
       </c>
@@ -20847,7 +20766,7 @@
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>7</v>
@@ -20862,7 +20781,7 @@
         <v>50</v>
       </c>
       <c r="F321" s="1"/>
-      <c r="G321" s="8"/>
+      <c r="G321" s="1"/>
       <c r="H321" s="1" t="s">
         <v>167</v>
       </c>
@@ -20899,7 +20818,7 @@
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>7</v>
@@ -20914,7 +20833,7 @@
         <v>50</v>
       </c>
       <c r="F322" s="1"/>
-      <c r="G322" s="8"/>
+      <c r="G322" s="1"/>
       <c r="H322" s="1" t="s">
         <v>167</v>
       </c>
@@ -20951,7 +20870,7 @@
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>7</v>
@@ -20966,7 +20885,7 @@
         <v>50</v>
       </c>
       <c r="F323" s="1"/>
-      <c r="G323" s="8"/>
+      <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
         <v>167</v>
       </c>
@@ -21003,7 +20922,7 @@
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>7</v>
@@ -21018,7 +20937,7 @@
         <v>50</v>
       </c>
       <c r="F324" s="1"/>
-      <c r="G324" s="8"/>
+      <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
         <v>167</v>
       </c>
@@ -21055,7 +20974,7 @@
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>7</v>
@@ -21070,7 +20989,7 @@
         <v>50</v>
       </c>
       <c r="F325" s="1"/>
-      <c r="G325" s="8"/>
+      <c r="G325" s="1"/>
       <c r="H325" s="1" t="s">
         <v>167</v>
       </c>
@@ -21107,7 +21026,7 @@
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>7</v>
@@ -21122,7 +21041,7 @@
         <v>50</v>
       </c>
       <c r="F326" s="1"/>
-      <c r="G326" s="8"/>
+      <c r="G326" s="1"/>
       <c r="H326" s="1" t="s">
         <v>167</v>
       </c>
@@ -21159,7 +21078,7 @@
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>7</v>
@@ -21174,7 +21093,7 @@
         <v>50</v>
       </c>
       <c r="F327" s="1"/>
-      <c r="G327" s="8"/>
+      <c r="G327" s="1"/>
       <c r="H327" s="1" t="s">
         <v>167</v>
       </c>
@@ -21211,7 +21130,7 @@
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>7</v>
@@ -21226,7 +21145,7 @@
         <v>50</v>
       </c>
       <c r="F328" s="1"/>
-      <c r="G328" s="8"/>
+      <c r="G328" s="1"/>
       <c r="H328" s="1" t="s">
         <v>167</v>
       </c>
@@ -21263,7 +21182,7 @@
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>7</v>
@@ -21278,7 +21197,7 @@
         <v>50</v>
       </c>
       <c r="F329" s="1"/>
-      <c r="G329" s="8"/>
+      <c r="G329" s="1"/>
       <c r="H329" s="1" t="s">
         <v>167</v>
       </c>
@@ -21315,7 +21234,7 @@
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>7</v>
@@ -21330,7 +21249,7 @@
         <v>50</v>
       </c>
       <c r="F330" s="1"/>
-      <c r="G330" s="8"/>
+      <c r="G330" s="1"/>
       <c r="H330" s="1" t="s">
         <v>167</v>
       </c>
@@ -21367,7 +21286,7 @@
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>7</v>
@@ -21382,7 +21301,7 @@
         <v>50</v>
       </c>
       <c r="F331" s="1"/>
-      <c r="G331" s="8"/>
+      <c r="G331" s="1"/>
       <c r="H331" s="1" t="s">
         <v>167</v>
       </c>
@@ -21419,7 +21338,7 @@
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>7</v>
@@ -21434,7 +21353,7 @@
         <v>50</v>
       </c>
       <c r="F332" s="1"/>
-      <c r="G332" s="8"/>
+      <c r="G332" s="1"/>
       <c r="H332" s="1" t="s">
         <v>167</v>
       </c>
@@ -21471,7 +21390,7 @@
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>7</v>
@@ -21486,7 +21405,7 @@
         <v>50</v>
       </c>
       <c r="F333" s="1"/>
-      <c r="G333" s="8"/>
+      <c r="G333" s="1"/>
       <c r="H333" s="1" t="s">
         <v>167</v>
       </c>
@@ -21523,7 +21442,7 @@
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>7</v>
@@ -21538,7 +21457,7 @@
         <v>50</v>
       </c>
       <c r="F334" s="1"/>
-      <c r="G334" s="8"/>
+      <c r="G334" s="1"/>
       <c r="H334" s="1" t="s">
         <v>167</v>
       </c>
@@ -21575,7 +21494,7 @@
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>7</v>
@@ -21590,7 +21509,7 @@
         <v>50</v>
       </c>
       <c r="F335" s="1"/>
-      <c r="G335" s="8"/>
+      <c r="G335" s="1"/>
       <c r="H335" s="1" t="s">
         <v>167</v>
       </c>
@@ -21627,7 +21546,7 @@
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>7</v>
@@ -21642,7 +21561,7 @@
         <v>50</v>
       </c>
       <c r="F336" s="1"/>
-      <c r="G336" s="8"/>
+      <c r="G336" s="1"/>
       <c r="H336" s="1" t="s">
         <v>167</v>
       </c>
@@ -21679,7 +21598,7 @@
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>7</v>
@@ -21694,7 +21613,7 @@
         <v>50</v>
       </c>
       <c r="F337" s="1"/>
-      <c r="G337" s="8"/>
+      <c r="G337" s="1"/>
       <c r="H337" s="1" t="s">
         <v>167</v>
       </c>
@@ -21731,7 +21650,7 @@
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>7</v>
@@ -21746,7 +21665,7 @@
         <v>50</v>
       </c>
       <c r="F338" s="1"/>
-      <c r="G338" s="8"/>
+      <c r="G338" s="1"/>
       <c r="H338" s="1" t="s">
         <v>167</v>
       </c>
@@ -21783,7 +21702,7 @@
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>7</v>
@@ -21798,7 +21717,7 @@
         <v>50</v>
       </c>
       <c r="F339" s="1"/>
-      <c r="G339" s="8"/>
+      <c r="G339" s="1"/>
       <c r="H339" s="1" t="s">
         <v>167</v>
       </c>
@@ -21835,7 +21754,7 @@
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>7</v>
@@ -21850,7 +21769,7 @@
         <v>50</v>
       </c>
       <c r="F340" s="1"/>
-      <c r="G340" s="8"/>
+      <c r="G340" s="1"/>
       <c r="H340" s="1" t="s">
         <v>167</v>
       </c>
@@ -21887,7 +21806,7 @@
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>7</v>
@@ -21902,7 +21821,7 @@
         <v>50</v>
       </c>
       <c r="F341" s="1"/>
-      <c r="G341" s="8"/>
+      <c r="G341" s="1"/>
       <c r="H341" s="1" t="s">
         <v>167</v>
       </c>
@@ -21939,7 +21858,7 @@
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>7</v>
@@ -21954,7 +21873,7 @@
         <v>50</v>
       </c>
       <c r="F342" s="1"/>
-      <c r="G342" s="8"/>
+      <c r="G342" s="1"/>
       <c r="H342" s="1" t="s">
         <v>167</v>
       </c>
@@ -21991,7 +21910,7 @@
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>7</v>
@@ -22006,7 +21925,7 @@
         <v>50</v>
       </c>
       <c r="F343" s="1"/>
-      <c r="G343" s="8"/>
+      <c r="G343" s="1"/>
       <c r="H343" s="1" t="s">
         <v>167</v>
       </c>
@@ -22043,7 +21962,7 @@
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>7</v>
@@ -22058,7 +21977,7 @@
         <v>50</v>
       </c>
       <c r="F344" s="1"/>
-      <c r="G344" s="8"/>
+      <c r="G344" s="1"/>
       <c r="H344" s="1" t="s">
         <v>167</v>
       </c>
@@ -22095,7 +22014,7 @@
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>7</v>
@@ -22110,7 +22029,7 @@
         <v>50</v>
       </c>
       <c r="F345" s="1"/>
-      <c r="G345" s="8"/>
+      <c r="G345" s="1"/>
       <c r="H345" s="1" t="s">
         <v>167</v>
       </c>
@@ -22147,7 +22066,7 @@
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>7</v>
@@ -22162,7 +22081,7 @@
         <v>50</v>
       </c>
       <c r="F346" s="1"/>
-      <c r="G346" s="8"/>
+      <c r="G346" s="1"/>
       <c r="H346" s="1" t="s">
         <v>167</v>
       </c>
@@ -22199,7 +22118,7 @@
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>7</v>
@@ -22214,7 +22133,7 @@
         <v>50</v>
       </c>
       <c r="F347" s="1"/>
-      <c r="G347" s="8"/>
+      <c r="G347" s="1"/>
       <c r="H347" s="1" t="s">
         <v>167</v>
       </c>
@@ -22251,7 +22170,7 @@
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>7</v>
@@ -22266,7 +22185,7 @@
         <v>50</v>
       </c>
       <c r="F348" s="1"/>
-      <c r="G348" s="8"/>
+      <c r="G348" s="1"/>
       <c r="H348" s="1" t="s">
         <v>167</v>
       </c>
@@ -22303,7 +22222,7 @@
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>7</v>
@@ -22318,7 +22237,7 @@
         <v>50</v>
       </c>
       <c r="F349" s="1"/>
-      <c r="G349" s="8"/>
+      <c r="G349" s="1"/>
       <c r="H349" s="1" t="s">
         <v>167</v>
       </c>
@@ -22355,7 +22274,7 @@
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>7</v>
@@ -22370,7 +22289,7 @@
         <v>50</v>
       </c>
       <c r="F350" s="1"/>
-      <c r="G350" s="8"/>
+      <c r="G350" s="1"/>
       <c r="H350" s="1" t="s">
         <v>167</v>
       </c>
@@ -22407,7 +22326,7 @@
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>7</v>
@@ -22422,7 +22341,7 @@
         <v>50</v>
       </c>
       <c r="F351" s="1"/>
-      <c r="G351" s="8"/>
+      <c r="G351" s="1"/>
       <c r="H351" s="1" t="s">
         <v>167</v>
       </c>
@@ -22459,7 +22378,7 @@
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>7</v>
@@ -22474,7 +22393,7 @@
         <v>50</v>
       </c>
       <c r="F352" s="1"/>
-      <c r="G352" s="8"/>
+      <c r="G352" s="1"/>
       <c r="H352" s="1" t="s">
         <v>167</v>
       </c>
@@ -22511,7 +22430,7 @@
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>7</v>
@@ -22526,7 +22445,7 @@
         <v>50</v>
       </c>
       <c r="F353" s="1"/>
-      <c r="G353" s="8"/>
+      <c r="G353" s="1"/>
       <c r="H353" s="1" t="s">
         <v>167</v>
       </c>
@@ -22563,7 +22482,7 @@
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>7</v>
@@ -22578,7 +22497,7 @@
         <v>50</v>
       </c>
       <c r="F354" s="1"/>
-      <c r="G354" s="8"/>
+      <c r="G354" s="1"/>
       <c r="H354" s="1" t="s">
         <v>167</v>
       </c>
@@ -22615,7 +22534,7 @@
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>7</v>
@@ -22630,7 +22549,7 @@
         <v>50</v>
       </c>
       <c r="F355" s="1"/>
-      <c r="G355" s="8"/>
+      <c r="G355" s="1"/>
       <c r="H355" s="1" t="s">
         <v>167</v>
       </c>
@@ -22667,7 +22586,7 @@
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>7</v>
@@ -22682,7 +22601,7 @@
         <v>50</v>
       </c>
       <c r="F356" s="1"/>
-      <c r="G356" s="8"/>
+      <c r="G356" s="1"/>
       <c r="H356" s="1" t="s">
         <v>167</v>
       </c>
@@ -22719,7 +22638,7 @@
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>7</v>
@@ -22734,7 +22653,7 @@
         <v>50</v>
       </c>
       <c r="F357" s="1"/>
-      <c r="G357" s="8"/>
+      <c r="G357" s="1"/>
       <c r="H357" s="1" t="s">
         <v>167</v>
       </c>
@@ -22771,7 +22690,7 @@
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>7</v>
@@ -22786,7 +22705,7 @@
         <v>50</v>
       </c>
       <c r="F358" s="1"/>
-      <c r="G358" s="8"/>
+      <c r="G358" s="1"/>
       <c r="H358" s="1" t="s">
         <v>167</v>
       </c>
@@ -22823,7 +22742,7 @@
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>7</v>
@@ -22838,7 +22757,7 @@
         <v>50</v>
       </c>
       <c r="F359" s="1"/>
-      <c r="G359" s="8"/>
+      <c r="G359" s="1"/>
       <c r="H359" s="1" t="s">
         <v>167</v>
       </c>
@@ -22875,7 +22794,7 @@
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>7</v>
@@ -22890,7 +22809,7 @@
         <v>50</v>
       </c>
       <c r="F360" s="1"/>
-      <c r="G360" s="8"/>
+      <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1">
         <v>22.7</v>
@@ -22908,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="N360" s="1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="O360" s="1">
         <v>4</v>
@@ -22925,7 +22844,7 @@
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>7</v>
@@ -22940,7 +22859,7 @@
         <v>50</v>
       </c>
       <c r="F361" s="1"/>
-      <c r="G361" s="8"/>
+      <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1">
         <v>22.7</v>
@@ -22958,7 +22877,7 @@
         <v>2</v>
       </c>
       <c r="N361" s="1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="O361" s="1">
         <v>4</v>
@@ -22975,7 +22894,7 @@
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>7</v>
@@ -22990,7 +22909,7 @@
         <v>50</v>
       </c>
       <c r="F362" s="1"/>
-      <c r="G362" s="8"/>
+      <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1">
         <v>33.799999999999997</v>
@@ -23008,7 +22927,7 @@
         <v>3</v>
       </c>
       <c r="N362" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O362" s="1">
         <v>8</v>
@@ -23025,7 +22944,7 @@
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>7</v>
@@ -23040,7 +22959,7 @@
         <v>50</v>
       </c>
       <c r="F363" s="1"/>
-      <c r="G363" s="8"/>
+      <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1">
         <v>33.799999999999997</v>
@@ -23058,7 +22977,7 @@
         <v>2</v>
       </c>
       <c r="N363" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O363" s="1">
         <v>8</v>
@@ -23075,7 +22994,7 @@
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>7</v>
@@ -23090,7 +23009,7 @@
         <v>50</v>
       </c>
       <c r="F364" s="1"/>
-      <c r="G364" s="8"/>
+      <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1">
         <v>33.799999999999997</v>
@@ -23108,7 +23027,7 @@
         <v>11</v>
       </c>
       <c r="N364" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O364" s="1">
         <v>8</v>
@@ -23125,7 +23044,7 @@
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>7</v>
@@ -23140,7 +23059,7 @@
         <v>50</v>
       </c>
       <c r="F365" s="1"/>
-      <c r="G365" s="8"/>
+      <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1">
         <v>33.799999999999997</v>
@@ -23158,7 +23077,7 @@
         <v>3</v>
       </c>
       <c r="N365" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O365" s="1">
         <v>8</v>
@@ -23175,7 +23094,7 @@
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>7</v>
@@ -23190,7 +23109,7 @@
         <v>50</v>
       </c>
       <c r="F366" s="1"/>
-      <c r="G366" s="8"/>
+      <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1">
         <v>46.1</v>
@@ -23208,7 +23127,7 @@
         <v>3</v>
       </c>
       <c r="N366" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O366" s="1">
         <v>10</v>
@@ -23225,7 +23144,7 @@
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>7</v>
@@ -23240,7 +23159,7 @@
         <v>50</v>
       </c>
       <c r="F367" s="1"/>
-      <c r="G367" s="8"/>
+      <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1">
         <v>46.1</v>
@@ -23258,7 +23177,7 @@
         <v>3</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O367" s="1">
         <v>10</v>
@@ -23275,7 +23194,7 @@
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>7</v>
@@ -23290,7 +23209,7 @@
         <v>50</v>
       </c>
       <c r="F368" s="1"/>
-      <c r="G368" s="8"/>
+      <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1">
         <v>46.1</v>
@@ -23308,7 +23227,7 @@
         <v>17</v>
       </c>
       <c r="N368" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O368" s="1">
         <v>10</v>
@@ -23325,7 +23244,7 @@
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>7</v>
@@ -23340,7 +23259,7 @@
         <v>50</v>
       </c>
       <c r="F369" s="1"/>
-      <c r="G369" s="8"/>
+      <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1">
         <v>46.1</v>
@@ -23358,7 +23277,7 @@
         <v>6</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O369" s="1">
         <v>10</v>
@@ -23375,7 +23294,7 @@
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>7</v>
@@ -23390,7 +23309,7 @@
         <v>50</v>
       </c>
       <c r="F370" s="1"/>
-      <c r="G370" s="8"/>
+      <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1">
         <v>46.1</v>
@@ -23408,7 +23327,7 @@
         <v>3</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O370" s="1">
         <v>10</v>
@@ -23425,7 +23344,7 @@
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>7</v>
@@ -23440,7 +23359,7 @@
         <v>50</v>
       </c>
       <c r="F371" s="1"/>
-      <c r="G371" s="8"/>
+      <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1">
         <v>35.799999999999997</v>
@@ -23458,7 +23377,7 @@
         <v>2</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="O371" s="1">
         <v>10</v>
@@ -23475,7 +23394,7 @@
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>7</v>
@@ -23490,7 +23409,7 @@
         <v>50</v>
       </c>
       <c r="F372" s="1"/>
-      <c r="G372" s="8"/>
+      <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1">
         <v>35.799999999999997</v>
@@ -23508,7 +23427,7 @@
         <v>2</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="O372" s="1">
         <v>10</v>
@@ -23525,7 +23444,7 @@
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>7</v>
@@ -23540,7 +23459,7 @@
         <v>50</v>
       </c>
       <c r="F373" s="1"/>
-      <c r="G373" s="8"/>
+      <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1">
         <v>35.799999999999997</v>
@@ -23558,7 +23477,7 @@
         <v>3</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="O373" s="1">
         <v>10</v>
@@ -23575,7 +23494,7 @@
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>7</v>
@@ -23590,7 +23509,7 @@
         <v>50</v>
       </c>
       <c r="F374" s="1"/>
-      <c r="G374" s="8"/>
+      <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1">
         <v>35.799999999999997</v>
@@ -23599,7 +23518,7 @@
         <v>209</v>
       </c>
       <c r="K374" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L374" s="1" t="s">
         <v>71</v>
@@ -23608,7 +23527,7 @@
         <v>2</v>
       </c>
       <c r="N374" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="O374" s="1">
         <v>10</v>
@@ -23625,7 +23544,7 @@
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>7</v>
@@ -23640,7 +23559,7 @@
         <v>50</v>
       </c>
       <c r="F375" s="1"/>
-      <c r="G375" s="8"/>
+      <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1">
         <v>35.799999999999997</v>
@@ -23658,7 +23577,7 @@
         <v>2</v>
       </c>
       <c r="N375" s="1" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="O375" s="1">
         <v>10</v>
@@ -23675,7 +23594,7 @@
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>7</v>
@@ -23690,7 +23609,7 @@
         <v>50</v>
       </c>
       <c r="F376" s="1"/>
-      <c r="G376" s="8"/>
+      <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1">
         <v>22.6</v>
@@ -23708,7 +23627,7 @@
         <v>26</v>
       </c>
       <c r="N376" s="1" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="O376" s="1">
         <v>8</v>
@@ -23725,7 +23644,7 @@
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>7</v>
@@ -23740,7 +23659,7 @@
         <v>50</v>
       </c>
       <c r="F377" s="1"/>
-      <c r="G377" s="8"/>
+      <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1">
         <v>22.6</v>
@@ -23758,7 +23677,7 @@
         <v>9</v>
       </c>
       <c r="N377" s="1" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="O377" s="1">
         <v>8</v>
@@ -23775,7 +23694,7 @@
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>7</v>
@@ -23790,7 +23709,7 @@
         <v>50</v>
       </c>
       <c r="F378" s="1"/>
-      <c r="G378" s="8"/>
+      <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1">
         <v>22.6</v>
@@ -23808,7 +23727,7 @@
         <v>9</v>
       </c>
       <c r="N378" s="1" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="O378" s="1">
         <v>8</v>
@@ -23825,7 +23744,7 @@
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>7</v>
@@ -23840,7 +23759,7 @@
         <v>50</v>
       </c>
       <c r="F379" s="1"/>
-      <c r="G379" s="8"/>
+      <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1">
         <v>22.6</v>
@@ -23858,7 +23777,7 @@
         <v>12</v>
       </c>
       <c r="N379" s="1" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="O379" s="1">
         <v>8</v>
@@ -23875,7 +23794,7 @@
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>7</v>
@@ -23890,7 +23809,7 @@
         <v>50</v>
       </c>
       <c r="F380" s="1"/>
-      <c r="G380" s="8"/>
+      <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1">
         <v>21.6</v>
@@ -23908,7 +23827,7 @@
         <v>14</v>
       </c>
       <c r="N380" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O380" s="1">
         <v>4</v>
@@ -23925,7 +23844,7 @@
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>7</v>
@@ -23940,7 +23859,7 @@
         <v>50</v>
       </c>
       <c r="F381" s="1"/>
-      <c r="G381" s="8"/>
+      <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1">
         <v>21.6</v>
@@ -23958,7 +23877,7 @@
         <v>8</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O381" s="1">
         <v>4</v>
@@ -23975,7 +23894,7 @@
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>7</v>
@@ -23990,7 +23909,7 @@
         <v>50</v>
       </c>
       <c r="F382" s="1"/>
-      <c r="G382" s="8"/>
+      <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1">
         <v>30.2</v>
@@ -24008,7 +23927,7 @@
         <v>11</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="O382" s="1">
         <v>2</v>
@@ -24025,7 +23944,7 @@
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>7</v>
@@ -24040,7 +23959,7 @@
         <v>50</v>
       </c>
       <c r="F383" s="1"/>
-      <c r="G383" s="8"/>
+      <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1">
         <v>28.1</v>
@@ -24058,7 +23977,7 @@
         <v>10</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="O383" s="1">
         <v>2</v>
@@ -24075,7 +23994,7 @@
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>7</v>
@@ -24090,7 +24009,7 @@
         <v>50</v>
       </c>
       <c r="F384" s="1"/>
-      <c r="G384" s="8"/>
+      <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1">
         <v>30.5</v>
@@ -24108,7 +24027,7 @@
         <v>20</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O384" s="1">
         <v>10</v>
@@ -24125,7 +24044,7 @@
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>7</v>
@@ -24140,7 +24059,7 @@
         <v>50</v>
       </c>
       <c r="F385" s="1"/>
-      <c r="G385" s="8"/>
+      <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1">
         <v>30.5</v>
@@ -24158,7 +24077,7 @@
         <v>6</v>
       </c>
       <c r="N385" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O385" s="1">
         <v>10</v>
@@ -24175,7 +24094,7 @@
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>7</v>
@@ -24190,7 +24109,7 @@
         <v>50</v>
       </c>
       <c r="F386" s="1"/>
-      <c r="G386" s="8"/>
+      <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1">
         <v>30.5</v>
@@ -24208,7 +24127,7 @@
         <v>3</v>
       </c>
       <c r="N386" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O386" s="1">
         <v>10</v>
@@ -24225,7 +24144,7 @@
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>7</v>
@@ -24240,7 +24159,7 @@
         <v>50</v>
       </c>
       <c r="F387" s="1"/>
-      <c r="G387" s="8"/>
+      <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1">
         <v>30.5</v>
@@ -24258,7 +24177,7 @@
         <v>4</v>
       </c>
       <c r="N387" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O387" s="1">
         <v>10</v>
@@ -24275,7 +24194,7 @@
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>7</v>
@@ -24290,7 +24209,7 @@
         <v>50</v>
       </c>
       <c r="F388" s="1"/>
-      <c r="G388" s="8"/>
+      <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1">
         <v>30.5</v>
@@ -24308,7 +24227,7 @@
         <v>7</v>
       </c>
       <c r="N388" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O388" s="1">
         <v>10</v>
@@ -24325,7 +24244,7 @@
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>7</v>
@@ -24340,7 +24259,7 @@
         <v>50</v>
       </c>
       <c r="F389" s="1"/>
-      <c r="G389" s="8"/>
+      <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1">
         <v>33.4</v>
@@ -24358,7 +24277,7 @@
         <v>19</v>
       </c>
       <c r="N389" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="O389" s="1">
         <v>2</v>
@@ -24375,7 +24294,7 @@
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>7</v>
@@ -24390,7 +24309,7 @@
         <v>50</v>
       </c>
       <c r="F390" s="1"/>
-      <c r="G390" s="8"/>
+      <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1">
         <v>27.9</v>
@@ -24408,7 +24327,7 @@
         <v>4</v>
       </c>
       <c r="N390" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="O390" s="1">
         <v>6</v>
@@ -24425,7 +24344,7 @@
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>7</v>
@@ -24440,7 +24359,7 @@
         <v>50</v>
       </c>
       <c r="F391" s="1"/>
-      <c r="G391" s="8"/>
+      <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1">
         <v>27.9</v>
@@ -24458,7 +24377,7 @@
         <v>3</v>
       </c>
       <c r="N391" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="O391" s="1">
         <v>6</v>
@@ -24475,7 +24394,7 @@
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>7</v>
@@ -24490,7 +24409,7 @@
         <v>50</v>
       </c>
       <c r="F392" s="1"/>
-      <c r="G392" s="8"/>
+      <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1">
         <v>27.9</v>
@@ -24508,7 +24427,7 @@
         <v>9</v>
       </c>
       <c r="N392" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="O392" s="1">
         <v>6</v>
@@ -24525,7 +24444,7 @@
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>7</v>
@@ -24540,7 +24459,7 @@
         <v>50</v>
       </c>
       <c r="F393" s="1"/>
-      <c r="G393" s="8"/>
+      <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1">
         <v>46.4</v>
@@ -24558,7 +24477,7 @@
         <v>4</v>
       </c>
       <c r="N393" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O393" s="1">
         <v>20</v>
@@ -24575,7 +24494,7 @@
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>7</v>
@@ -24590,7 +24509,7 @@
         <v>50</v>
       </c>
       <c r="F394" s="1"/>
-      <c r="G394" s="8"/>
+      <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1">
         <v>46.4</v>
@@ -24608,7 +24527,7 @@
         <v>3</v>
       </c>
       <c r="N394" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O394" s="1">
         <v>20</v>
@@ -24625,7 +24544,7 @@
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>7</v>
@@ -24640,7 +24559,7 @@
         <v>50</v>
       </c>
       <c r="F395" s="1"/>
-      <c r="G395" s="8"/>
+      <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1">
         <v>46.4</v>
@@ -24649,7 +24568,7 @@
         <v>203</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L395" s="1" t="s">
         <v>71</v>
@@ -24658,7 +24577,7 @@
         <v>3</v>
       </c>
       <c r="N395" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O395" s="1">
         <v>20</v>
@@ -24675,7 +24594,7 @@
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>7</v>
@@ -24690,7 +24609,7 @@
         <v>50</v>
       </c>
       <c r="F396" s="1"/>
-      <c r="G396" s="8"/>
+      <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1">
         <v>46.4</v>
@@ -24708,7 +24627,7 @@
         <v>22</v>
       </c>
       <c r="N396" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O396" s="1">
         <v>20</v>
@@ -24725,7 +24644,7 @@
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>7</v>
@@ -24740,7 +24659,7 @@
         <v>50</v>
       </c>
       <c r="F397" s="1"/>
-      <c r="G397" s="8"/>
+      <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1" t="s">
         <v>167</v>
@@ -24775,7 +24694,7 @@
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>7</v>
@@ -24790,7 +24709,7 @@
         <v>50</v>
       </c>
       <c r="F398" s="1"/>
-      <c r="G398" s="8"/>
+      <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1">
         <v>46.4</v>
@@ -24808,7 +24727,7 @@
         <v>2</v>
       </c>
       <c r="N398" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O398" s="1">
         <v>20</v>
@@ -24825,7 +24744,7 @@
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>7</v>
@@ -24840,7 +24759,7 @@
         <v>50</v>
       </c>
       <c r="F399" s="1"/>
-      <c r="G399" s="8"/>
+      <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1">
         <v>46.4</v>
@@ -24858,7 +24777,7 @@
         <v>2</v>
       </c>
       <c r="N399" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O399" s="1">
         <v>20</v>
@@ -24875,7 +24794,7 @@
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>7</v>
@@ -24890,7 +24809,7 @@
         <v>50</v>
       </c>
       <c r="F400" s="1"/>
-      <c r="G400" s="8"/>
+      <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1">
         <v>46.4</v>
@@ -24908,7 +24827,7 @@
         <v>3</v>
       </c>
       <c r="N400" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O400" s="1">
         <v>20</v>
@@ -24925,7 +24844,7 @@
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>7</v>
@@ -24940,7 +24859,7 @@
         <v>50</v>
       </c>
       <c r="F401" s="1"/>
-      <c r="G401" s="8"/>
+      <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1">
         <v>46.4</v>
@@ -24958,7 +24877,7 @@
         <v>7</v>
       </c>
       <c r="N401" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O401" s="1">
         <v>20</v>
@@ -24975,7 +24894,7 @@
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>7</v>
@@ -24990,7 +24909,7 @@
         <v>50</v>
       </c>
       <c r="F402" s="1"/>
-      <c r="G402" s="8"/>
+      <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1">
         <v>46.4</v>
@@ -25008,7 +24927,7 @@
         <v>3</v>
       </c>
       <c r="N402" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O402" s="1">
         <v>20</v>
@@ -25025,7 +24944,7 @@
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>7</v>
@@ -25040,7 +24959,7 @@
         <v>50</v>
       </c>
       <c r="F403" s="1"/>
-      <c r="G403" s="8"/>
+      <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1">
         <v>46.4</v>
@@ -25049,7 +24968,7 @@
         <v>203</v>
       </c>
       <c r="K403" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L403" s="1" t="s">
         <v>71</v>
@@ -25058,7 +24977,7 @@
         <v>2</v>
       </c>
       <c r="N403" s="1" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="O403" s="1">
         <v>20</v>
@@ -25075,7 +24994,7 @@
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>7</v>
@@ -25090,7 +25009,7 @@
         <v>50</v>
       </c>
       <c r="F404" s="1"/>
-      <c r="G404" s="8"/>
+      <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1">
         <v>45</v>
@@ -25108,7 +25027,7 @@
         <v>1</v>
       </c>
       <c r="N404" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="O404" s="1">
         <v>10</v>
@@ -25125,7 +25044,7 @@
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>7</v>
@@ -25140,7 +25059,7 @@
         <v>50</v>
       </c>
       <c r="F405" s="1"/>
-      <c r="G405" s="8"/>
+      <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1">
         <v>45</v>
@@ -25158,7 +25077,7 @@
         <v>2</v>
       </c>
       <c r="N405" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="O405" s="1">
         <v>10</v>
@@ -25175,7 +25094,7 @@
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>7</v>
@@ -25190,7 +25109,7 @@
         <v>50</v>
       </c>
       <c r="F406" s="1"/>
-      <c r="G406" s="8"/>
+      <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1">
         <v>45</v>
@@ -25208,7 +25127,7 @@
         <v>2</v>
       </c>
       <c r="N406" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="O406" s="1">
         <v>10</v>
@@ -25225,7 +25144,7 @@
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>7</v>
@@ -25240,7 +25159,7 @@
         <v>50</v>
       </c>
       <c r="F407" s="1"/>
-      <c r="G407" s="8"/>
+      <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1">
         <v>45</v>
@@ -25258,7 +25177,7 @@
         <v>23</v>
       </c>
       <c r="N407" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="O407" s="1">
         <v>10</v>
@@ -25275,7 +25194,7 @@
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>7</v>
@@ -25290,7 +25209,7 @@
         <v>50</v>
       </c>
       <c r="F408" s="1"/>
-      <c r="G408" s="8"/>
+      <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1">
         <v>45</v>
@@ -25308,7 +25227,7 @@
         <v>2</v>
       </c>
       <c r="N408" s="1" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="O408" s="1">
         <v>10</v>
@@ -25325,7 +25244,7 @@
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>7</v>
@@ -25340,7 +25259,7 @@
         <v>50</v>
       </c>
       <c r="F409" s="1"/>
-      <c r="G409" s="8"/>
+      <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1">
         <v>25.3</v>
@@ -25358,7 +25277,7 @@
         <v>2</v>
       </c>
       <c r="N409" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="O409" s="1">
         <v>12</v>
@@ -25375,7 +25294,7 @@
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>7</v>
@@ -25390,7 +25309,7 @@
         <v>50</v>
       </c>
       <c r="F410" s="1"/>
-      <c r="G410" s="8"/>
+      <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1">
         <v>25.3</v>
@@ -25408,7 +25327,7 @@
         <v>2</v>
       </c>
       <c r="N410" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="O410" s="1">
         <v>12</v>
@@ -25425,7 +25344,7 @@
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>7</v>
@@ -25440,7 +25359,7 @@
         <v>50</v>
       </c>
       <c r="F411" s="1"/>
-      <c r="G411" s="8"/>
+      <c r="G411" s="1"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1">
         <v>25.3</v>
@@ -25458,7 +25377,7 @@
         <v>6</v>
       </c>
       <c r="N411" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="O411" s="1">
         <v>12</v>
@@ -25475,7 +25394,7 @@
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>7</v>
@@ -25490,7 +25409,7 @@
         <v>50</v>
       </c>
       <c r="F412" s="1"/>
-      <c r="G412" s="8"/>
+      <c r="G412" s="1"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1">
         <v>25.3</v>
@@ -25499,7 +25418,7 @@
         <v>204</v>
       </c>
       <c r="K412" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L412" s="1" t="s">
         <v>164</v>
@@ -25508,7 +25427,7 @@
         <v>3</v>
       </c>
       <c r="N412" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="O412" s="1">
         <v>12</v>
@@ -25525,7 +25444,7 @@
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>7</v>
@@ -25540,7 +25459,7 @@
         <v>50</v>
       </c>
       <c r="F413" s="1"/>
-      <c r="G413" s="8"/>
+      <c r="G413" s="1"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1">
         <v>25.3</v>
@@ -25558,7 +25477,7 @@
         <v>4</v>
       </c>
       <c r="N413" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="O413" s="1">
         <v>12</v>
@@ -25575,7 +25494,7 @@
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>7</v>
@@ -25590,7 +25509,7 @@
         <v>50</v>
       </c>
       <c r="F414" s="1"/>
-      <c r="G414" s="8"/>
+      <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1">
         <v>25.3</v>
@@ -25608,7 +25527,7 @@
         <v>11</v>
       </c>
       <c r="N414" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="O414" s="1">
         <v>12</v>
@@ -25625,7 +25544,7 @@
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>7</v>
@@ -25640,7 +25559,7 @@
         <v>50</v>
       </c>
       <c r="F415" s="1"/>
-      <c r="G415" s="8"/>
+      <c r="G415" s="1"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1">
         <v>23.7</v>
@@ -25658,7 +25577,7 @@
         <v>5</v>
       </c>
       <c r="N415" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O415" s="1">
         <v>12</v>
@@ -25675,7 +25594,7 @@
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>7</v>
@@ -25690,7 +25609,7 @@
         <v>50</v>
       </c>
       <c r="F416" s="1"/>
-      <c r="G416" s="8"/>
+      <c r="G416" s="1"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1">
         <v>23.7</v>
@@ -25708,7 +25627,7 @@
         <v>2</v>
       </c>
       <c r="N416" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O416" s="1">
         <v>12</v>
@@ -25725,7 +25644,7 @@
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>7</v>
@@ -25740,7 +25659,7 @@
         <v>50</v>
       </c>
       <c r="F417" s="1"/>
-      <c r="G417" s="8"/>
+      <c r="G417" s="1"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1">
         <v>23.7</v>
@@ -25758,7 +25677,7 @@
         <v>1</v>
       </c>
       <c r="N417" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O417" s="1">
         <v>12</v>
@@ -25775,7 +25694,7 @@
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>7</v>
@@ -25790,7 +25709,7 @@
         <v>50</v>
       </c>
       <c r="F418" s="1"/>
-      <c r="G418" s="8"/>
+      <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1">
         <v>23.7</v>
@@ -25808,7 +25727,7 @@
         <v>5</v>
       </c>
       <c r="N418" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O418" s="1">
         <v>12</v>
@@ -25825,7 +25744,7 @@
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>7</v>
@@ -25840,7 +25759,7 @@
         <v>50</v>
       </c>
       <c r="F419" s="1"/>
-      <c r="G419" s="8"/>
+      <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1">
         <v>23.7</v>
@@ -25858,7 +25777,7 @@
         <v>14</v>
       </c>
       <c r="N419" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O419" s="1">
         <v>12</v>
@@ -25875,7 +25794,7 @@
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>7</v>
@@ -25890,7 +25809,7 @@
         <v>50</v>
       </c>
       <c r="F420" s="1"/>
-      <c r="G420" s="8"/>
+      <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1">
         <v>23.7</v>
@@ -25908,7 +25827,7 @@
         <v>4</v>
       </c>
       <c r="N420" s="1" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O420" s="1">
         <v>12</v>
@@ -25925,7 +25844,7 @@
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>7</v>
@@ -25940,7 +25859,7 @@
         <v>50</v>
       </c>
       <c r="F421" s="1"/>
-      <c r="G421" s="8"/>
+      <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1">
         <v>45.6</v>
@@ -25958,7 +25877,7 @@
         <v>4</v>
       </c>
       <c r="N421" s="1" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="O421" s="1">
         <v>2</v>
@@ -25975,7 +25894,7 @@
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>7</v>
@@ -25990,7 +25909,7 @@
         <v>50</v>
       </c>
       <c r="F422" s="1"/>
-      <c r="G422" s="8"/>
+      <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1">
         <v>45.6</v>
@@ -26008,7 +25927,7 @@
         <v>6</v>
       </c>
       <c r="N422" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="O422" s="1">
         <v>10</v>
@@ -26025,7 +25944,7 @@
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>7</v>
@@ -26040,7 +25959,7 @@
         <v>50</v>
       </c>
       <c r="F423" s="1"/>
-      <c r="G423" s="8"/>
+      <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1">
         <v>45.6</v>
@@ -26058,7 +25977,7 @@
         <v>8</v>
       </c>
       <c r="N423" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="O423" s="1">
         <v>10</v>
@@ -26075,7 +25994,7 @@
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>7</v>
@@ -26090,7 +26009,7 @@
         <v>50</v>
       </c>
       <c r="F424" s="1"/>
-      <c r="G424" s="8"/>
+      <c r="G424" s="1"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1">
         <v>45.6</v>
@@ -26108,7 +26027,7 @@
         <v>8</v>
       </c>
       <c r="N424" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="O424" s="1">
         <v>10</v>
@@ -26125,7 +26044,7 @@
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>7</v>
@@ -26140,7 +26059,7 @@
         <v>50</v>
       </c>
       <c r="F425" s="1"/>
-      <c r="G425" s="8"/>
+      <c r="G425" s="1"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1">
         <v>45.6</v>
@@ -26158,7 +26077,7 @@
         <v>6</v>
       </c>
       <c r="N425" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="O425" s="1">
         <v>10</v>
@@ -26175,7 +26094,7 @@
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>7</v>
@@ -26190,7 +26109,7 @@
         <v>50</v>
       </c>
       <c r="F426" s="1"/>
-      <c r="G426" s="8"/>
+      <c r="G426" s="1"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1">
         <v>45.6</v>
@@ -26208,7 +26127,7 @@
         <v>7</v>
       </c>
       <c r="N426" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="O426" s="1">
         <v>10</v>
@@ -26225,7 +26144,7 @@
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>7</v>
@@ -26240,7 +26159,7 @@
         <v>50</v>
       </c>
       <c r="F427" s="1"/>
-      <c r="G427" s="8"/>
+      <c r="G427" s="1"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1">
         <v>55.8</v>
@@ -26258,7 +26177,7 @@
         <v>6</v>
       </c>
       <c r="N427" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O427" s="1">
         <v>14</v>
@@ -26275,7 +26194,7 @@
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>7</v>
@@ -26290,7 +26209,7 @@
         <v>50</v>
       </c>
       <c r="F428" s="1"/>
-      <c r="G428" s="8"/>
+      <c r="G428" s="1"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1">
         <v>55.8</v>
@@ -26308,7 +26227,7 @@
         <v>6</v>
       </c>
       <c r="N428" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O428" s="1">
         <v>14</v>
@@ -26325,7 +26244,7 @@
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>7</v>
@@ -26340,7 +26259,7 @@
         <v>50</v>
       </c>
       <c r="F429" s="1"/>
-      <c r="G429" s="8"/>
+      <c r="G429" s="1"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1">
         <v>55.8</v>
@@ -26358,7 +26277,7 @@
         <v>2</v>
       </c>
       <c r="N429" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O429" s="1">
         <v>14</v>
@@ -26375,7 +26294,7 @@
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>7</v>
@@ -26390,7 +26309,7 @@
         <v>50</v>
       </c>
       <c r="F430" s="1"/>
-      <c r="G430" s="8"/>
+      <c r="G430" s="1"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1">
         <v>55.8</v>
@@ -26408,7 +26327,7 @@
         <v>3</v>
       </c>
       <c r="N430" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O430" s="1">
         <v>14</v>
@@ -26425,7 +26344,7 @@
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>7</v>
@@ -26440,7 +26359,7 @@
         <v>50</v>
       </c>
       <c r="F431" s="1"/>
-      <c r="G431" s="8"/>
+      <c r="G431" s="1"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1">
         <v>55.8</v>
@@ -26458,7 +26377,7 @@
         <v>6</v>
       </c>
       <c r="N431" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O431" s="1">
         <v>14</v>
@@ -26475,7 +26394,7 @@
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>7</v>
@@ -26490,7 +26409,7 @@
         <v>50</v>
       </c>
       <c r="F432" s="1"/>
-      <c r="G432" s="8"/>
+      <c r="G432" s="1"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1">
         <v>55.8</v>
@@ -26508,7 +26427,7 @@
         <v>9</v>
       </c>
       <c r="N432" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O432" s="1">
         <v>14</v>
@@ -26525,7 +26444,7 @@
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>7</v>
@@ -26540,7 +26459,7 @@
         <v>50</v>
       </c>
       <c r="F433" s="1"/>
-      <c r="G433" s="8"/>
+      <c r="G433" s="1"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1">
         <v>55.8</v>
@@ -26558,7 +26477,7 @@
         <v>5</v>
       </c>
       <c r="N433" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="O433" s="1">
         <v>14</v>
@@ -26575,7 +26494,7 @@
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>7</v>
@@ -26590,7 +26509,7 @@
         <v>50</v>
       </c>
       <c r="F434" s="1"/>
-      <c r="G434" s="8"/>
+      <c r="G434" s="1"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1">
         <v>42.9</v>
@@ -26608,7 +26527,7 @@
         <v>2</v>
       </c>
       <c r="N434" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="O434" s="1">
         <v>4</v>
@@ -26625,7 +26544,7 @@
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>7</v>
@@ -26640,7 +26559,7 @@
         <v>50</v>
       </c>
       <c r="F435" s="1"/>
-      <c r="G435" s="8"/>
+      <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1">
         <v>42.9</v>
@@ -26658,7 +26577,7 @@
         <v>14</v>
       </c>
       <c r="N435" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="O435" s="1">
         <v>4</v>
@@ -26675,7 +26594,7 @@
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>7</v>
@@ -26690,7 +26609,7 @@
         <v>50</v>
       </c>
       <c r="F436" s="1"/>
-      <c r="G436" s="8"/>
+      <c r="G436" s="1"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1">
         <v>57.4</v>
@@ -26708,7 +26627,7 @@
         <v>1</v>
       </c>
       <c r="N436" s="1" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="O436" s="1">
         <v>4</v>
@@ -26725,7 +26644,7 @@
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>7</v>
@@ -26740,7 +26659,7 @@
         <v>50</v>
       </c>
       <c r="F437" s="1"/>
-      <c r="G437" s="8"/>
+      <c r="G437" s="1"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1">
         <v>57.4</v>
@@ -26758,7 +26677,7 @@
         <v>2</v>
       </c>
       <c r="N437" s="1" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="O437" s="1">
         <v>4</v>
@@ -26775,7 +26694,7 @@
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>7</v>
@@ -26790,7 +26709,7 @@
         <v>50</v>
       </c>
       <c r="F438" s="1"/>
-      <c r="G438" s="8"/>
+      <c r="G438" s="1"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1">
         <v>41.9</v>
@@ -26808,7 +26727,7 @@
         <v>4</v>
       </c>
       <c r="N438" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="O438" s="1">
         <v>12</v>
@@ -26825,7 +26744,7 @@
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>7</v>
@@ -26840,7 +26759,7 @@
         <v>50</v>
       </c>
       <c r="F439" s="1"/>
-      <c r="G439" s="8"/>
+      <c r="G439" s="1"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1">
         <v>41.9</v>
@@ -26858,7 +26777,7 @@
         <v>2</v>
       </c>
       <c r="N439" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="O439" s="1">
         <v>12</v>
@@ -26875,7 +26794,7 @@
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>7</v>
@@ -26890,7 +26809,7 @@
         <v>50</v>
       </c>
       <c r="F440" s="1"/>
-      <c r="G440" s="8"/>
+      <c r="G440" s="1"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1">
         <v>41.9</v>
@@ -26908,7 +26827,7 @@
         <v>10</v>
       </c>
       <c r="N440" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="O440" s="1">
         <v>12</v>
@@ -26925,7 +26844,7 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>7</v>
@@ -26940,7 +26859,7 @@
         <v>50</v>
       </c>
       <c r="F441" s="1"/>
-      <c r="G441" s="8"/>
+      <c r="G441" s="1"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1">
         <v>41.9</v>
@@ -26958,7 +26877,7 @@
         <v>4</v>
       </c>
       <c r="N441" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="O441" s="1">
         <v>12</v>
@@ -26975,7 +26894,7 @@
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>7</v>
@@ -26990,7 +26909,7 @@
         <v>50</v>
       </c>
       <c r="F442" s="1"/>
-      <c r="G442" s="8"/>
+      <c r="G442" s="1"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1">
         <v>41.9</v>
@@ -26999,7 +26918,7 @@
         <v>204</v>
       </c>
       <c r="K442" s="1" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="L442" s="1" t="s">
         <v>71</v>
@@ -27008,7 +26927,7 @@
         <v>3</v>
       </c>
       <c r="N442" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="O442" s="1">
         <v>12</v>
@@ -27025,7 +26944,7 @@
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>7</v>
@@ -27040,7 +26959,7 @@
         <v>50</v>
       </c>
       <c r="F443" s="1"/>
-      <c r="G443" s="8"/>
+      <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1">
         <v>41.9</v>
@@ -27058,7 +26977,7 @@
         <v>5</v>
       </c>
       <c r="N443" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="O443" s="1">
         <v>12</v>
@@ -27075,7 +26994,7 @@
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>7</v>
@@ -27090,7 +27009,7 @@
         <v>50</v>
       </c>
       <c r="F444" s="1"/>
-      <c r="G444" s="8"/>
+      <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1">
         <v>23.7</v>
@@ -27108,7 +27027,7 @@
         <v>6</v>
       </c>
       <c r="N444" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O444" s="1">
         <v>14</v>
@@ -27125,7 +27044,7 @@
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>7</v>
@@ -27140,7 +27059,7 @@
         <v>50</v>
       </c>
       <c r="F445" s="1"/>
-      <c r="G445" s="8"/>
+      <c r="G445" s="1"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1">
         <v>23.7</v>
@@ -27158,7 +27077,7 @@
         <v>3</v>
       </c>
       <c r="N445" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O445" s="1">
         <v>14</v>
@@ -27175,7 +27094,7 @@
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>7</v>
@@ -27190,7 +27109,7 @@
         <v>50</v>
       </c>
       <c r="F446" s="1"/>
-      <c r="G446" s="8"/>
+      <c r="G446" s="1"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1">
         <v>23.7</v>
@@ -27208,7 +27127,7 @@
         <v>9</v>
       </c>
       <c r="N446" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O446" s="1">
         <v>14</v>
@@ -27225,7 +27144,7 @@
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>7</v>
@@ -27240,7 +27159,7 @@
         <v>50</v>
       </c>
       <c r="F447" s="1"/>
-      <c r="G447" s="8"/>
+      <c r="G447" s="1"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1">
         <v>23.7</v>
@@ -27258,7 +27177,7 @@
         <v>8</v>
       </c>
       <c r="N447" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O447" s="1">
         <v>14</v>
@@ -27275,7 +27194,7 @@
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>7</v>
@@ -27290,7 +27209,7 @@
         <v>50</v>
       </c>
       <c r="F448" s="1"/>
-      <c r="G448" s="8"/>
+      <c r="G448" s="1"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1">
         <v>23.7</v>
@@ -27299,7 +27218,7 @@
         <v>204</v>
       </c>
       <c r="K448" s="1" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="L448" s="1" t="s">
         <v>71</v>
@@ -27308,7 +27227,7 @@
         <v>8</v>
       </c>
       <c r="N448" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O448" s="1">
         <v>14</v>
@@ -27325,7 +27244,7 @@
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>7</v>
@@ -27340,7 +27259,7 @@
         <v>50</v>
       </c>
       <c r="F449" s="1"/>
-      <c r="G449" s="8"/>
+      <c r="G449" s="1"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1">
         <v>23.7</v>
@@ -27358,7 +27277,7 @@
         <v>4</v>
       </c>
       <c r="N449" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O449" s="1">
         <v>14</v>
@@ -27375,7 +27294,7 @@
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>7</v>
@@ -27390,7 +27309,7 @@
         <v>50</v>
       </c>
       <c r="F450" s="1"/>
-      <c r="G450" s="8"/>
+      <c r="G450" s="1"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1">
         <v>23.7</v>
@@ -27399,7 +27318,7 @@
         <v>204</v>
       </c>
       <c r="K450" s="1" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="L450" s="1" t="s">
         <v>71</v>
@@ -27408,7 +27327,7 @@
         <v>7</v>
       </c>
       <c r="N450" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="O450" s="1">
         <v>14</v>
@@ -27425,7 +27344,7 @@
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>7</v>
@@ -27440,7 +27359,7 @@
         <v>50</v>
       </c>
       <c r="F451" s="1"/>
-      <c r="G451" s="8"/>
+      <c r="G451" s="1"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1">
         <v>50.4</v>
@@ -27458,7 +27377,7 @@
         <v>10</v>
       </c>
       <c r="N451" s="1" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="O451" s="1">
         <v>10</v>
@@ -27475,7 +27394,7 @@
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>7</v>
@@ -27490,7 +27409,7 @@
         <v>50</v>
       </c>
       <c r="F452" s="1"/>
-      <c r="G452" s="8"/>
+      <c r="G452" s="1"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1">
         <v>50.4</v>
@@ -27508,7 +27427,7 @@
         <v>5</v>
       </c>
       <c r="N452" s="1" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="O452" s="1">
         <v>10</v>
@@ -27525,7 +27444,7 @@
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>7</v>
@@ -27540,7 +27459,7 @@
         <v>50</v>
       </c>
       <c r="F453" s="1"/>
-      <c r="G453" s="8"/>
+      <c r="G453" s="1"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1">
         <v>50.4</v>
@@ -27558,7 +27477,7 @@
         <v>5</v>
       </c>
       <c r="N453" s="1" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="O453" s="1">
         <v>10</v>
@@ -27575,7 +27494,7 @@
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>7</v>
@@ -27590,7 +27509,7 @@
         <v>50</v>
       </c>
       <c r="F454" s="1"/>
-      <c r="G454" s="8"/>
+      <c r="G454" s="1"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1">
         <v>50.4</v>
@@ -27608,7 +27527,7 @@
         <v>3</v>
       </c>
       <c r="N454" s="1" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="O454" s="1">
         <v>10</v>
@@ -27625,7 +27544,7 @@
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>7</v>
@@ -27640,7 +27559,7 @@
         <v>50</v>
       </c>
       <c r="F455" s="1"/>
-      <c r="G455" s="8"/>
+      <c r="G455" s="1"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1">
         <v>50.4</v>
@@ -27658,7 +27577,7 @@
         <v>3</v>
       </c>
       <c r="N455" s="1" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="O455" s="1">
         <v>10</v>
@@ -27675,7 +27594,7 @@
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>7</v>
@@ -27690,7 +27609,7 @@
         <v>50</v>
       </c>
       <c r="F456" s="1"/>
-      <c r="G456" s="8"/>
+      <c r="G456" s="1"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1">
         <v>46.1</v>
@@ -27708,7 +27627,7 @@
         <v>1</v>
       </c>
       <c r="N456" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O456" s="1">
         <v>16</v>
@@ -27725,7 +27644,7 @@
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>7</v>
@@ -27740,7 +27659,7 @@
         <v>50</v>
       </c>
       <c r="F457" s="1"/>
-      <c r="G457" s="8"/>
+      <c r="G457" s="1"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1">
         <v>46.1</v>
@@ -27758,7 +27677,7 @@
         <v>3</v>
       </c>
       <c r="N457" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O457" s="1">
         <v>16</v>
@@ -27775,7 +27694,7 @@
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>7</v>
@@ -27790,7 +27709,7 @@
         <v>50</v>
       </c>
       <c r="F458" s="1"/>
-      <c r="G458" s="8"/>
+      <c r="G458" s="1"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1">
         <v>46.1</v>
@@ -27808,7 +27727,7 @@
         <v>9</v>
       </c>
       <c r="N458" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O458" s="1">
         <v>16</v>
@@ -27825,7 +27744,7 @@
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>7</v>
@@ -27840,7 +27759,7 @@
         <v>50</v>
       </c>
       <c r="F459" s="1"/>
-      <c r="G459" s="8"/>
+      <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1">
         <v>46.1</v>
@@ -27858,7 +27777,7 @@
         <v>1</v>
       </c>
       <c r="N459" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O459" s="1">
         <v>16</v>
@@ -27875,7 +27794,7 @@
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>7</v>
@@ -27890,7 +27809,7 @@
         <v>50</v>
       </c>
       <c r="F460" s="1"/>
-      <c r="G460" s="8"/>
+      <c r="G460" s="1"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1">
         <v>46.1</v>
@@ -27908,7 +27827,7 @@
         <v>4</v>
       </c>
       <c r="N460" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O460" s="1">
         <v>16</v>
@@ -27925,7 +27844,7 @@
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>7</v>
@@ -27940,7 +27859,7 @@
         <v>50</v>
       </c>
       <c r="F461" s="1"/>
-      <c r="G461" s="8"/>
+      <c r="G461" s="1"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1">
         <v>46.1</v>
@@ -27958,7 +27877,7 @@
         <v>4</v>
       </c>
       <c r="N461" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O461" s="1">
         <v>16</v>
@@ -27975,7 +27894,7 @@
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>7</v>
@@ -27990,7 +27909,7 @@
         <v>50</v>
       </c>
       <c r="F462" s="1"/>
-      <c r="G462" s="8"/>
+      <c r="G462" s="1"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1">
         <v>46.1</v>
@@ -28008,7 +27927,7 @@
         <v>8</v>
       </c>
       <c r="N462" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O462" s="1">
         <v>16</v>
@@ -28025,7 +27944,7 @@
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>7</v>
@@ -28040,7 +27959,7 @@
         <v>50</v>
       </c>
       <c r="F463" s="1"/>
-      <c r="G463" s="8"/>
+      <c r="G463" s="1"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1">
         <v>46.1</v>
@@ -28058,7 +27977,7 @@
         <v>5</v>
       </c>
       <c r="N463" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="O463" s="1">
         <v>16</v>
@@ -28075,7 +27994,7 @@
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>7</v>
@@ -28090,7 +28009,7 @@
         <v>50</v>
       </c>
       <c r="F464" s="1"/>
-      <c r="G464" s="8"/>
+      <c r="G464" s="1"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1">
         <v>43.8</v>
@@ -28108,7 +28027,7 @@
         <v>31</v>
       </c>
       <c r="N464" s="1" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="O464" s="1">
         <v>2</v>
@@ -28125,7 +28044,7 @@
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>7</v>
@@ -28140,7 +28059,7 @@
         <v>50</v>
       </c>
       <c r="F465" s="1"/>
-      <c r="G465" s="8"/>
+      <c r="G465" s="1"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1">
         <v>44.7</v>
@@ -28158,7 +28077,7 @@
         <v>6</v>
       </c>
       <c r="N465" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="O465" s="1">
         <v>8</v>
@@ -28175,7 +28094,7 @@
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>7</v>
@@ -28190,7 +28109,7 @@
         <v>50</v>
       </c>
       <c r="F466" s="1"/>
-      <c r="G466" s="8"/>
+      <c r="G466" s="1"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1">
         <v>44.7</v>
@@ -28208,7 +28127,7 @@
         <v>3</v>
       </c>
       <c r="N466" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="O466" s="1">
         <v>8</v>
@@ -28225,7 +28144,7 @@
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>7</v>
@@ -28240,7 +28159,7 @@
         <v>50</v>
       </c>
       <c r="F467" s="1"/>
-      <c r="G467" s="8"/>
+      <c r="G467" s="1"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1">
         <v>44.7</v>
@@ -28258,7 +28177,7 @@
         <v>10</v>
       </c>
       <c r="N467" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="O467" s="1">
         <v>8</v>
@@ -28275,7 +28194,7 @@
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>7</v>
@@ -28290,7 +28209,7 @@
         <v>50</v>
       </c>
       <c r="F468" s="1"/>
-      <c r="G468" s="8"/>
+      <c r="G468" s="1"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1">
         <v>44.7</v>
@@ -28299,7 +28218,7 @@
         <v>204</v>
       </c>
       <c r="K468" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L468" s="1" t="s">
         <v>71</v>
@@ -28308,7 +28227,7 @@
         <v>9</v>
       </c>
       <c r="N468" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="O468" s="1">
         <v>8</v>
@@ -28325,7 +28244,7 @@
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>7</v>
@@ -28340,7 +28259,7 @@
         <v>167</v>
       </c>
       <c r="F469" s="1"/>
-      <c r="G469" s="8" t="s">
+      <c r="G469" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H469" s="1"/>
@@ -28377,7 +28296,7 @@
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>7</v>
@@ -28392,7 +28311,7 @@
         <v>167</v>
       </c>
       <c r="F470" s="1"/>
-      <c r="G470" s="8" t="s">
+      <c r="G470" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H470" s="1"/>
@@ -28429,7 +28348,7 @@
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>7</v>
@@ -28444,7 +28363,7 @@
         <v>167</v>
       </c>
       <c r="F471" s="1"/>
-      <c r="G471" s="8" t="s">
+      <c r="G471" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H471" s="1"/>
@@ -28481,7 +28400,7 @@
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>7</v>
@@ -28496,7 +28415,7 @@
         <v>167</v>
       </c>
       <c r="F472" s="1"/>
-      <c r="G472" s="8" t="s">
+      <c r="G472" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H472" s="1"/>
@@ -28533,7 +28452,7 @@
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>7</v>
@@ -28548,7 +28467,7 @@
         <v>167</v>
       </c>
       <c r="F473" s="1"/>
-      <c r="G473" s="8" t="s">
+      <c r="G473" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H473" s="1"/>
@@ -28585,7 +28504,7 @@
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>7</v>
@@ -28600,7 +28519,7 @@
         <v>167</v>
       </c>
       <c r="F474" s="1"/>
-      <c r="G474" s="8" t="s">
+      <c r="G474" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H474" s="1"/>
@@ -28637,7 +28556,7 @@
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>7</v>
@@ -28652,7 +28571,7 @@
         <v>167</v>
       </c>
       <c r="F475" s="1"/>
-      <c r="G475" s="8" t="s">
+      <c r="G475" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H475" s="1"/>
@@ -28689,7 +28608,7 @@
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>7</v>
@@ -28704,7 +28623,7 @@
         <v>167</v>
       </c>
       <c r="F476" s="1"/>
-      <c r="G476" s="8" t="s">
+      <c r="G476" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H476" s="1"/>
@@ -28741,7 +28660,7 @@
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>7</v>
@@ -28756,7 +28675,7 @@
         <v>167</v>
       </c>
       <c r="F477" s="1"/>
-      <c r="G477" s="8" t="s">
+      <c r="G477" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H477" s="1"/>
@@ -28793,7 +28712,7 @@
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>7</v>
@@ -28808,7 +28727,7 @@
         <v>167</v>
       </c>
       <c r="F478" s="1"/>
-      <c r="G478" s="8" t="s">
+      <c r="G478" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H478" s="1"/>
@@ -28845,7 +28764,7 @@
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>7</v>
@@ -28860,7 +28779,7 @@
         <v>167</v>
       </c>
       <c r="F479" s="1"/>
-      <c r="G479" s="8" t="s">
+      <c r="G479" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H479" s="1"/>
@@ -28897,7 +28816,7 @@
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>7</v>
@@ -28912,7 +28831,7 @@
         <v>167</v>
       </c>
       <c r="F480" s="1"/>
-      <c r="G480" s="8" t="s">
+      <c r="G480" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H480" s="1"/>
@@ -28949,7 +28868,7 @@
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>7</v>
@@ -28964,7 +28883,7 @@
         <v>167</v>
       </c>
       <c r="F481" s="1"/>
-      <c r="G481" s="8" t="s">
+      <c r="G481" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H481" s="1"/>
@@ -29001,7 +28920,7 @@
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>7</v>
@@ -29016,7 +28935,7 @@
         <v>167</v>
       </c>
       <c r="F482" s="1"/>
-      <c r="G482" s="8" t="s">
+      <c r="G482" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H482" s="1"/>
@@ -29053,7 +28972,7 @@
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>7</v>
@@ -29068,7 +28987,7 @@
         <v>167</v>
       </c>
       <c r="F483" s="1"/>
-      <c r="G483" s="8" t="s">
+      <c r="G483" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H483" s="1"/>
@@ -29105,7 +29024,7 @@
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>7</v>
@@ -29120,7 +29039,7 @@
         <v>167</v>
       </c>
       <c r="F484" s="1"/>
-      <c r="G484" s="8" t="s">
+      <c r="G484" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H484" s="1"/>
@@ -29157,7 +29076,7 @@
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>7</v>
@@ -29172,7 +29091,7 @@
         <v>167</v>
       </c>
       <c r="F485" s="1"/>
-      <c r="G485" s="8" t="s">
+      <c r="G485" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H485" s="1"/>
@@ -29209,7 +29128,7 @@
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>7</v>
@@ -29224,7 +29143,7 @@
         <v>167</v>
       </c>
       <c r="F486" s="1"/>
-      <c r="G486" s="8" t="s">
+      <c r="G486" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H486" s="1"/>
@@ -29261,7 +29180,7 @@
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>7</v>
@@ -29276,7 +29195,7 @@
         <v>167</v>
       </c>
       <c r="F487" s="1"/>
-      <c r="G487" s="8" t="s">
+      <c r="G487" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H487" s="1"/>
@@ -29313,7 +29232,7 @@
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>7</v>
@@ -29328,7 +29247,7 @@
         <v>167</v>
       </c>
       <c r="F488" s="1"/>
-      <c r="G488" s="8" t="s">
+      <c r="G488" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H488" s="1"/>
@@ -29365,7 +29284,7 @@
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>7</v>
@@ -29380,7 +29299,7 @@
         <v>167</v>
       </c>
       <c r="F489" s="1"/>
-      <c r="G489" s="8" t="s">
+      <c r="G489" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H489" s="1"/>
@@ -29417,7 +29336,7 @@
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>7</v>
@@ -29432,7 +29351,7 @@
         <v>167</v>
       </c>
       <c r="F490" s="1"/>
-      <c r="G490" s="8" t="s">
+      <c r="G490" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H490" s="1"/>
@@ -29469,7 +29388,7 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>7</v>
@@ -29484,7 +29403,7 @@
         <v>167</v>
       </c>
       <c r="F491" s="1"/>
-      <c r="G491" s="8" t="s">
+      <c r="G491" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H491" s="1"/>
@@ -29521,7 +29440,7 @@
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>7</v>
@@ -29536,7 +29455,7 @@
         <v>167</v>
       </c>
       <c r="F492" s="1"/>
-      <c r="G492" s="8" t="s">
+      <c r="G492" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H492" s="1"/>
@@ -29573,7 +29492,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>7</v>
@@ -29588,7 +29507,7 @@
         <v>167</v>
       </c>
       <c r="F493" s="1"/>
-      <c r="G493" s="8" t="s">
+      <c r="G493" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H493" s="1"/>
@@ -29625,7 +29544,7 @@
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>7</v>
@@ -29640,7 +29559,7 @@
         <v>167</v>
       </c>
       <c r="F494" s="1"/>
-      <c r="G494" s="8" t="s">
+      <c r="G494" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H494" s="1"/>
@@ -29677,7 +29596,7 @@
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>7</v>
@@ -29692,7 +29611,7 @@
         <v>167</v>
       </c>
       <c r="F495" s="1"/>
-      <c r="G495" s="8" t="s">
+      <c r="G495" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H495" s="1"/>
@@ -29729,7 +29648,7 @@
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>7</v>
@@ -29744,7 +29663,7 @@
         <v>167</v>
       </c>
       <c r="F496" s="1"/>
-      <c r="G496" s="8" t="s">
+      <c r="G496" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H496" s="1"/>
@@ -29781,7 +29700,7 @@
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>7</v>
@@ -29796,7 +29715,7 @@
         <v>167</v>
       </c>
       <c r="F497" s="1"/>
-      <c r="G497" s="8" t="s">
+      <c r="G497" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H497" s="1"/>
@@ -29833,7 +29752,7 @@
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>7</v>
@@ -29848,7 +29767,7 @@
         <v>167</v>
       </c>
       <c r="F498" s="1"/>
-      <c r="G498" s="8" t="s">
+      <c r="G498" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H498" s="1"/>
@@ -29885,7 +29804,7 @@
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>7</v>
@@ -29900,7 +29819,7 @@
         <v>167</v>
       </c>
       <c r="F499" s="1"/>
-      <c r="G499" s="8" t="s">
+      <c r="G499" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H499" s="1"/>
@@ -29937,7 +29856,7 @@
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>7</v>
@@ -29952,7 +29871,7 @@
         <v>167</v>
       </c>
       <c r="F500" s="1"/>
-      <c r="G500" s="8" t="s">
+      <c r="G500" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H500" s="1"/>
@@ -29989,7 +29908,7 @@
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>7</v>
@@ -30004,7 +29923,7 @@
         <v>167</v>
       </c>
       <c r="F501" s="1"/>
-      <c r="G501" s="8" t="s">
+      <c r="G501" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H501" s="1"/>
@@ -30041,7 +29960,7 @@
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>7</v>
@@ -30056,7 +29975,7 @@
         <v>167</v>
       </c>
       <c r="F502" s="1"/>
-      <c r="G502" s="8" t="s">
+      <c r="G502" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H502" s="1"/>
@@ -30093,7 +30012,7 @@
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>7</v>
@@ -30108,7 +30027,7 @@
         <v>167</v>
       </c>
       <c r="F503" s="1"/>
-      <c r="G503" s="8" t="s">
+      <c r="G503" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H503" s="1"/>
@@ -30145,7 +30064,7 @@
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>7</v>
@@ -30160,7 +30079,7 @@
         <v>167</v>
       </c>
       <c r="F504" s="1"/>
-      <c r="G504" s="8" t="s">
+      <c r="G504" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H504" s="1"/>
@@ -30197,7 +30116,7 @@
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>7</v>
@@ -30212,7 +30131,7 @@
         <v>167</v>
       </c>
       <c r="F505" s="1"/>
-      <c r="G505" s="8" t="s">
+      <c r="G505" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H505" s="1"/>
@@ -30249,7 +30168,7 @@
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>7</v>
@@ -30264,7 +30183,7 @@
         <v>167</v>
       </c>
       <c r="F506" s="1"/>
-      <c r="G506" s="8" t="s">
+      <c r="G506" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H506" s="1"/>
@@ -30301,7 +30220,7 @@
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>7</v>
@@ -30316,7 +30235,7 @@
         <v>167</v>
       </c>
       <c r="F507" s="1"/>
-      <c r="G507" s="8" t="s">
+      <c r="G507" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H507" s="1"/>
@@ -30353,7 +30272,7 @@
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>7</v>
@@ -30368,7 +30287,7 @@
         <v>167</v>
       </c>
       <c r="F508" s="1"/>
-      <c r="G508" s="8" t="s">
+      <c r="G508" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H508" s="1"/>
@@ -30405,7 +30324,7 @@
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>7</v>
@@ -30420,7 +30339,7 @@
         <v>167</v>
       </c>
       <c r="F509" s="1"/>
-      <c r="G509" s="8" t="s">
+      <c r="G509" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H509" s="1"/>
@@ -30457,7 +30376,7 @@
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>7</v>
@@ -30472,7 +30391,7 @@
         <v>167</v>
       </c>
       <c r="F510" s="1"/>
-      <c r="G510" s="8" t="s">
+      <c r="G510" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H510" s="1"/>
@@ -30509,7 +30428,7 @@
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>7</v>
@@ -30524,7 +30443,7 @@
         <v>167</v>
       </c>
       <c r="F511" s="1"/>
-      <c r="G511" s="8" t="s">
+      <c r="G511" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H511" s="1"/>
@@ -30561,7 +30480,7 @@
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>7</v>
@@ -30576,7 +30495,7 @@
         <v>167</v>
       </c>
       <c r="F512" s="1"/>
-      <c r="G512" s="8" t="s">
+      <c r="G512" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H512" s="1"/>
@@ -30613,7 +30532,7 @@
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>7</v>
@@ -30628,7 +30547,7 @@
         <v>167</v>
       </c>
       <c r="F513" s="1"/>
-      <c r="G513" s="8" t="s">
+      <c r="G513" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H513" s="1"/>
@@ -30665,7 +30584,7 @@
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>7</v>
@@ -30680,7 +30599,7 @@
         <v>167</v>
       </c>
       <c r="F514" s="1"/>
-      <c r="G514" s="8" t="s">
+      <c r="G514" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H514" s="1"/>
@@ -30717,7 +30636,7 @@
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>7</v>
@@ -30732,7 +30651,7 @@
         <v>167</v>
       </c>
       <c r="F515" s="1"/>
-      <c r="G515" s="8" t="s">
+      <c r="G515" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H515" s="1"/>
@@ -30769,7 +30688,7 @@
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>7</v>
@@ -30784,7 +30703,7 @@
         <v>167</v>
       </c>
       <c r="F516" s="1"/>
-      <c r="G516" s="8" t="s">
+      <c r="G516" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H516" s="1"/>
@@ -30821,7 +30740,7 @@
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>7</v>
@@ -30836,7 +30755,7 @@
         <v>167</v>
       </c>
       <c r="F517" s="1"/>
-      <c r="G517" s="8" t="s">
+      <c r="G517" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H517" s="1"/>
@@ -30873,7 +30792,7 @@
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>7</v>
@@ -30888,7 +30807,7 @@
         <v>167</v>
       </c>
       <c r="F518" s="1"/>
-      <c r="G518" s="8" t="s">
+      <c r="G518" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H518" s="1"/>
@@ -30925,7 +30844,7 @@
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>7</v>
@@ -30940,7 +30859,7 @@
         <v>167</v>
       </c>
       <c r="F519" s="1"/>
-      <c r="G519" s="8"/>
+      <c r="G519" s="1"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1">
         <v>21.6</v>
@@ -30958,7 +30877,7 @@
         <v>9</v>
       </c>
       <c r="N519" s="1" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="O519" s="1">
         <v>8</v>
@@ -30975,7 +30894,7 @@
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>7</v>
@@ -30990,7 +30909,7 @@
         <v>167</v>
       </c>
       <c r="F520" s="1"/>
-      <c r="G520" s="8"/>
+      <c r="G520" s="1"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1">
         <v>21.6</v>
@@ -31008,7 +30927,7 @@
         <v>2</v>
       </c>
       <c r="N520" s="1" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="O520" s="1">
         <v>8</v>
@@ -31025,7 +30944,7 @@
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>7</v>
@@ -31040,7 +30959,7 @@
         <v>167</v>
       </c>
       <c r="F521" s="1"/>
-      <c r="G521" s="8"/>
+      <c r="G521" s="1"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1">
         <v>21.6</v>
@@ -31049,7 +30968,7 @@
         <v>204</v>
       </c>
       <c r="K521" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L521" s="1" t="s">
         <v>71</v>
@@ -31058,7 +30977,7 @@
         <v>1</v>
       </c>
       <c r="N521" s="1" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="O521" s="1">
         <v>8</v>
@@ -31075,7 +30994,7 @@
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>7</v>
@@ -31090,7 +31009,7 @@
         <v>167</v>
       </c>
       <c r="F522" s="1"/>
-      <c r="G522" s="8"/>
+      <c r="G522" s="1"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1">
         <v>21.6</v>
@@ -31108,7 +31027,7 @@
         <v>5</v>
       </c>
       <c r="N522" s="1" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="O522" s="1">
         <v>8</v>
@@ -31125,7 +31044,7 @@
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>7</v>
@@ -31140,7 +31059,7 @@
         <v>167</v>
       </c>
       <c r="F523" s="1"/>
-      <c r="G523" s="8"/>
+      <c r="G523" s="1"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1">
         <v>46.1</v>
@@ -31158,7 +31077,7 @@
         <v>5</v>
       </c>
       <c r="N523" s="1" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="O523" s="1">
         <v>8</v>
@@ -31175,7 +31094,7 @@
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>7</v>
@@ -31190,7 +31109,7 @@
         <v>167</v>
       </c>
       <c r="F524" s="1"/>
-      <c r="G524" s="8"/>
+      <c r="G524" s="1"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1" t="s">
         <v>167</v>
@@ -31225,7 +31144,7 @@
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>7</v>
@@ -31240,7 +31159,7 @@
         <v>167</v>
       </c>
       <c r="F525" s="1"/>
-      <c r="G525" s="8"/>
+      <c r="G525" s="1"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1">
         <v>46.1</v>
@@ -31258,7 +31177,7 @@
         <v>26</v>
       </c>
       <c r="N525" s="1" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="O525" s="1">
         <v>8</v>
@@ -31275,7 +31194,7 @@
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>7</v>
@@ -31290,7 +31209,7 @@
         <v>167</v>
       </c>
       <c r="F526" s="1"/>
-      <c r="G526" s="8"/>
+      <c r="G526" s="1"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1">
         <v>46.1</v>
@@ -31308,7 +31227,7 @@
         <v>1</v>
       </c>
       <c r="N526" s="1" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="O526" s="1">
         <v>8</v>
@@ -31325,7 +31244,7 @@
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>7</v>
@@ -31340,7 +31259,7 @@
         <v>167</v>
       </c>
       <c r="F527" s="1"/>
-      <c r="G527" s="8"/>
+      <c r="G527" s="1"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1">
         <v>46.1</v>
@@ -31349,7 +31268,7 @@
         <v>204</v>
       </c>
       <c r="K527" s="1" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="L527" s="1" t="s">
         <v>71</v>
@@ -31358,7 +31277,7 @@
         <v>3</v>
       </c>
       <c r="N527" s="1" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="O527" s="1">
         <v>8</v>
@@ -31375,7 +31294,7 @@
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>7</v>
@@ -31390,7 +31309,7 @@
         <v>167</v>
       </c>
       <c r="F528" s="1"/>
-      <c r="G528" s="8"/>
+      <c r="G528" s="1"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1">
         <v>33.9</v>
@@ -31399,7 +31318,7 @@
         <v>203</v>
       </c>
       <c r="K528" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L528" s="1" t="s">
         <v>71</v>
@@ -31408,7 +31327,7 @@
         <v>4</v>
       </c>
       <c r="N528" s="1" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="O528" s="1">
         <v>4</v>
@@ -31425,7 +31344,7 @@
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>7</v>
@@ -31440,7 +31359,7 @@
         <v>167</v>
       </c>
       <c r="F529" s="1"/>
-      <c r="G529" s="8"/>
+      <c r="G529" s="1"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1">
         <v>33.9</v>
@@ -31458,7 +31377,7 @@
         <v>3</v>
       </c>
       <c r="N529" s="1" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="O529" s="1">
         <v>4</v>
@@ -31475,7 +31394,7 @@
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>7</v>
@@ -31490,7 +31409,7 @@
         <v>167</v>
       </c>
       <c r="F530" s="1"/>
-      <c r="G530" s="8"/>
+      <c r="G530" s="1"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1">
         <v>25.7</v>
@@ -31499,7 +31418,7 @@
         <v>204</v>
       </c>
       <c r="K530" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L530" s="1" t="s">
         <v>71</v>
@@ -31508,7 +31427,7 @@
         <v>16</v>
       </c>
       <c r="N530" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="O530" s="1">
         <v>12</v>
@@ -31525,7 +31444,7 @@
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>7</v>
@@ -31540,7 +31459,7 @@
         <v>167</v>
       </c>
       <c r="F531" s="1"/>
-      <c r="G531" s="8"/>
+      <c r="G531" s="1"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1">
         <v>25.7</v>
@@ -31558,7 +31477,7 @@
         <v>4</v>
       </c>
       <c r="N531" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="O531" s="1">
         <v>12</v>
@@ -31575,7 +31494,7 @@
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>7</v>
@@ -31590,7 +31509,7 @@
         <v>167</v>
       </c>
       <c r="F532" s="1"/>
-      <c r="G532" s="8"/>
+      <c r="G532" s="1"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1">
         <v>25.7</v>
@@ -31608,7 +31527,7 @@
         <v>2</v>
       </c>
       <c r="N532" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="O532" s="1">
         <v>12</v>
@@ -31625,7 +31544,7 @@
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>7</v>
@@ -31640,7 +31559,7 @@
         <v>167</v>
       </c>
       <c r="F533" s="1"/>
-      <c r="G533" s="8"/>
+      <c r="G533" s="1"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1">
         <v>25.7</v>
@@ -31658,7 +31577,7 @@
         <v>3</v>
       </c>
       <c r="N533" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="O533" s="1">
         <v>12</v>
@@ -31675,7 +31594,7 @@
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>7</v>
@@ -31690,7 +31609,7 @@
         <v>167</v>
       </c>
       <c r="F534" s="1"/>
-      <c r="G534" s="8"/>
+      <c r="G534" s="1"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1">
         <v>25.7</v>
@@ -31708,7 +31627,7 @@
         <v>3</v>
       </c>
       <c r="N534" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="O534" s="1">
         <v>12</v>
@@ -31725,7 +31644,7 @@
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>7</v>
@@ -31740,7 +31659,7 @@
         <v>167</v>
       </c>
       <c r="F535" s="1"/>
-      <c r="G535" s="8"/>
+      <c r="G535" s="1"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1">
         <v>25.7</v>
@@ -31758,7 +31677,7 @@
         <v>3</v>
       </c>
       <c r="N535" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="O535" s="1">
         <v>12</v>
@@ -31775,7 +31694,7 @@
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>7</v>
@@ -31790,7 +31709,7 @@
         <v>167</v>
       </c>
       <c r="F536" s="1"/>
-      <c r="G536" s="8"/>
+      <c r="G536" s="1"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1">
         <v>13</v>
@@ -31808,7 +31727,7 @@
         <v>25</v>
       </c>
       <c r="N536" s="1" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="O536" s="1">
         <v>2</v>
@@ -31825,7 +31744,7 @@
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>7</v>
@@ -31840,7 +31759,7 @@
         <v>167</v>
       </c>
       <c r="F537" s="1"/>
-      <c r="G537" s="8"/>
+      <c r="G537" s="1"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1">
         <v>12.5</v>
@@ -31849,7 +31768,7 @@
         <v>204</v>
       </c>
       <c r="K537" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L537" s="1" t="s">
         <v>71</v>
@@ -31858,7 +31777,7 @@
         <v>5</v>
       </c>
       <c r="N537" s="1" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="O537" s="1">
         <v>4</v>
@@ -31875,7 +31794,7 @@
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>7</v>
@@ -31890,7 +31809,7 @@
         <v>167</v>
       </c>
       <c r="F538" s="1"/>
-      <c r="G538" s="8"/>
+      <c r="G538" s="1"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1">
         <v>12.5</v>
@@ -31899,7 +31818,7 @@
         <v>204</v>
       </c>
       <c r="K538" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L538" s="1" t="s">
         <v>164</v>
@@ -31908,7 +31827,7 @@
         <v>2</v>
       </c>
       <c r="N538" s="1" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="O538" s="1">
         <v>4</v>
@@ -31925,7 +31844,7 @@
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>7</v>
@@ -31940,7 +31859,7 @@
         <v>167</v>
       </c>
       <c r="F539" s="1"/>
-      <c r="G539" s="8"/>
+      <c r="G539" s="1"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1">
         <v>46.1</v>
@@ -31958,7 +31877,7 @@
         <v>22</v>
       </c>
       <c r="N539" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O539" s="1">
         <v>22</v>
@@ -31975,7 +31894,7 @@
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>7</v>
@@ -31990,7 +31909,7 @@
         <v>167</v>
       </c>
       <c r="F540" s="1"/>
-      <c r="G540" s="8"/>
+      <c r="G540" s="1"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1">
         <v>46.1</v>
@@ -32008,7 +31927,7 @@
         <v>26</v>
       </c>
       <c r="N540" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O540" s="1">
         <v>22</v>
@@ -32025,7 +31944,7 @@
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>7</v>
@@ -32040,7 +31959,7 @@
         <v>167</v>
       </c>
       <c r="F541" s="1"/>
-      <c r="G541" s="8"/>
+      <c r="G541" s="1"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1">
         <v>46.1</v>
@@ -32058,7 +31977,7 @@
         <v>8</v>
       </c>
       <c r="N541" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O541" s="1">
         <v>22</v>
@@ -32075,7 +31994,7 @@
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>7</v>
@@ -32090,7 +32009,7 @@
         <v>167</v>
       </c>
       <c r="F542" s="1"/>
-      <c r="G542" s="8"/>
+      <c r="G542" s="1"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1">
         <v>46.1</v>
@@ -32108,7 +32027,7 @@
         <v>7</v>
       </c>
       <c r="N542" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O542" s="1">
         <v>22</v>
@@ -32125,7 +32044,7 @@
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>7</v>
@@ -32140,7 +32059,7 @@
         <v>167</v>
       </c>
       <c r="F543" s="1"/>
-      <c r="G543" s="8"/>
+      <c r="G543" s="1"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1">
         <v>46.1</v>
@@ -32158,7 +32077,7 @@
         <v>22</v>
       </c>
       <c r="N543" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O543" s="1">
         <v>22</v>
@@ -32175,7 +32094,7 @@
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>7</v>
@@ -32190,7 +32109,7 @@
         <v>167</v>
       </c>
       <c r="F544" s="1"/>
-      <c r="G544" s="8"/>
+      <c r="G544" s="1"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1">
         <v>46.1</v>
@@ -32208,7 +32127,7 @@
         <v>9</v>
       </c>
       <c r="N544" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O544" s="1">
         <v>22</v>
@@ -32225,7 +32144,7 @@
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>7</v>
@@ -32240,7 +32159,7 @@
         <v>167</v>
       </c>
       <c r="F545" s="1"/>
-      <c r="G545" s="8"/>
+      <c r="G545" s="1"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1">
         <v>46.1</v>
@@ -32258,7 +32177,7 @@
         <v>6</v>
       </c>
       <c r="N545" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O545" s="1">
         <v>22</v>
@@ -32275,7 +32194,7 @@
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>7</v>
@@ -32290,7 +32209,7 @@
         <v>167</v>
       </c>
       <c r="F546" s="1"/>
-      <c r="G546" s="8"/>
+      <c r="G546" s="1"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1">
         <v>46.1</v>
@@ -32299,7 +32218,7 @@
         <v>204</v>
       </c>
       <c r="K546" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L546" s="1" t="s">
         <v>71</v>
@@ -32308,7 +32227,7 @@
         <v>5</v>
       </c>
       <c r="N546" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O546" s="1">
         <v>22</v>
@@ -32325,7 +32244,7 @@
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>7</v>
@@ -32340,7 +32259,7 @@
         <v>167</v>
       </c>
       <c r="F547" s="1"/>
-      <c r="G547" s="8"/>
+      <c r="G547" s="1"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1">
         <v>46.1</v>
@@ -32358,7 +32277,7 @@
         <v>3</v>
       </c>
       <c r="N547" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O547" s="1">
         <v>22</v>
@@ -32375,7 +32294,7 @@
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>7</v>
@@ -32390,7 +32309,7 @@
         <v>167</v>
       </c>
       <c r="F548" s="1"/>
-      <c r="G548" s="8"/>
+      <c r="G548" s="1"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1">
         <v>46.1</v>
@@ -32408,7 +32327,7 @@
         <v>6</v>
       </c>
       <c r="N548" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O548" s="1">
         <v>22</v>
@@ -32425,7 +32344,7 @@
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>7</v>
@@ -32440,7 +32359,7 @@
         <v>167</v>
       </c>
       <c r="F549" s="1"/>
-      <c r="G549" s="8"/>
+      <c r="G549" s="1"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1">
         <v>46.1</v>
@@ -32449,7 +32368,7 @@
         <v>204</v>
       </c>
       <c r="K549" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>71</v>
@@ -32458,7 +32377,7 @@
         <v>4</v>
       </c>
       <c r="N549" s="1" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="O549" s="1">
         <v>22</v>
@@ -32475,7 +32394,7 @@
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>7</v>
@@ -32490,7 +32409,7 @@
         <v>167</v>
       </c>
       <c r="F550" s="1"/>
-      <c r="G550" s="8"/>
+      <c r="G550" s="1"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1">
         <v>42.9</v>
@@ -32499,7 +32418,7 @@
         <v>204</v>
       </c>
       <c r="K550" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L550" s="1" t="s">
         <v>71</v>
@@ -32508,7 +32427,7 @@
         <v>36</v>
       </c>
       <c r="N550" s="1" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="O550" s="1">
         <v>6</v>
@@ -32525,7 +32444,7 @@
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>7</v>
@@ -32540,7 +32459,7 @@
         <v>167</v>
       </c>
       <c r="F551" s="1"/>
-      <c r="G551" s="8"/>
+      <c r="G551" s="1"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1">
         <v>42.9</v>
@@ -32549,7 +32468,7 @@
         <v>204</v>
       </c>
       <c r="K551" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>71</v>
@@ -32558,7 +32477,7 @@
         <v>6</v>
       </c>
       <c r="N551" s="1" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="O551" s="1">
         <v>6</v>
@@ -32575,7 +32494,7 @@
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>7</v>
@@ -32590,7 +32509,7 @@
         <v>167</v>
       </c>
       <c r="F552" s="1"/>
-      <c r="G552" s="8"/>
+      <c r="G552" s="1"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1">
         <v>42.9</v>
@@ -32608,7 +32527,7 @@
         <v>1</v>
       </c>
       <c r="N552" s="1" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="O552" s="1">
         <v>6</v>
@@ -32625,7 +32544,7 @@
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>7</v>
@@ -32640,7 +32559,7 @@
         <v>167</v>
       </c>
       <c r="F553" s="1"/>
-      <c r="G553" s="8"/>
+      <c r="G553" s="1"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1">
         <v>26.5</v>
@@ -32658,7 +32577,7 @@
         <v>2</v>
       </c>
       <c r="N553" s="1" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="O553" s="1">
         <v>2</v>
@@ -32675,7 +32594,7 @@
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>7</v>
@@ -32690,7 +32609,7 @@
         <v>167</v>
       </c>
       <c r="F554" s="1"/>
-      <c r="G554" s="8"/>
+      <c r="G554" s="1"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1">
         <v>28.1</v>
@@ -32708,7 +32627,7 @@
         <v>3</v>
       </c>
       <c r="N554" s="1" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="O554" s="1">
         <v>2</v>
@@ -32725,7 +32644,7 @@
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>7</v>
@@ -32740,7 +32659,7 @@
         <v>167</v>
       </c>
       <c r="F555" s="1"/>
-      <c r="G555" s="8"/>
+      <c r="G555" s="1"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1">
         <v>22.6</v>
@@ -32758,7 +32677,7 @@
         <v>4</v>
       </c>
       <c r="N555" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O555" s="1">
         <v>16</v>
@@ -32775,7 +32694,7 @@
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>7</v>
@@ -32790,7 +32709,7 @@
         <v>167</v>
       </c>
       <c r="F556" s="1"/>
-      <c r="G556" s="8"/>
+      <c r="G556" s="1"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1">
         <v>22.6</v>
@@ -32808,7 +32727,7 @@
         <v>10</v>
       </c>
       <c r="N556" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O556" s="1">
         <v>16</v>
@@ -32825,7 +32744,7 @@
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>7</v>
@@ -32840,7 +32759,7 @@
         <v>167</v>
       </c>
       <c r="F557" s="1"/>
-      <c r="G557" s="8"/>
+      <c r="G557" s="1"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1">
         <v>22.6</v>
@@ -32858,7 +32777,7 @@
         <v>9</v>
       </c>
       <c r="N557" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O557" s="1">
         <v>16</v>
@@ -32875,7 +32794,7 @@
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>7</v>
@@ -32890,7 +32809,7 @@
         <v>167</v>
       </c>
       <c r="F558" s="1"/>
-      <c r="G558" s="8"/>
+      <c r="G558" s="1"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1">
         <v>22.6</v>
@@ -32908,7 +32827,7 @@
         <v>6</v>
       </c>
       <c r="N558" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O558" s="1">
         <v>16</v>
@@ -32925,7 +32844,7 @@
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>7</v>
@@ -32940,7 +32859,7 @@
         <v>167</v>
       </c>
       <c r="F559" s="1"/>
-      <c r="G559" s="8"/>
+      <c r="G559" s="1"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1">
         <v>22.6</v>
@@ -32958,7 +32877,7 @@
         <v>8</v>
       </c>
       <c r="N559" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O559" s="1">
         <v>16</v>
@@ -32975,7 +32894,7 @@
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>7</v>
@@ -32990,7 +32909,7 @@
         <v>167</v>
       </c>
       <c r="F560" s="1"/>
-      <c r="G560" s="8"/>
+      <c r="G560" s="1"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1">
         <v>22.6</v>
@@ -33008,7 +32927,7 @@
         <v>4</v>
       </c>
       <c r="N560" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O560" s="1">
         <v>16</v>
@@ -33025,7 +32944,7 @@
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>7</v>
@@ -33040,7 +32959,7 @@
         <v>167</v>
       </c>
       <c r="F561" s="1"/>
-      <c r="G561" s="8"/>
+      <c r="G561" s="1"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1">
         <v>22.6</v>
@@ -33058,7 +32977,7 @@
         <v>8</v>
       </c>
       <c r="N561" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O561" s="1">
         <v>16</v>
@@ -33075,7 +32994,7 @@
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>7</v>
@@ -33090,7 +33009,7 @@
         <v>167</v>
       </c>
       <c r="F562" s="1"/>
-      <c r="G562" s="8"/>
+      <c r="G562" s="1"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1">
         <v>22.6</v>
@@ -33108,7 +33027,7 @@
         <v>10</v>
       </c>
       <c r="N562" s="1" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="O562" s="1">
         <v>16</v>
@@ -33125,7 +33044,7 @@
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>7</v>
@@ -33140,7 +33059,7 @@
         <v>167</v>
       </c>
       <c r="F563" s="1"/>
-      <c r="G563" s="8"/>
+      <c r="G563" s="1"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1">
         <v>49.8</v>
@@ -33158,7 +33077,7 @@
         <v>2</v>
       </c>
       <c r="N563" s="1" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="O563" s="1">
         <v>12</v>
@@ -33175,7 +33094,7 @@
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>7</v>
@@ -33190,7 +33109,7 @@
         <v>167</v>
       </c>
       <c r="F564" s="1"/>
-      <c r="G564" s="8"/>
+      <c r="G564" s="1"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1">
         <v>49.8</v>
@@ -33208,7 +33127,7 @@
         <v>8</v>
       </c>
       <c r="N564" s="1" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="O564" s="1">
         <v>12</v>
@@ -33225,7 +33144,7 @@
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>7</v>
@@ -33240,7 +33159,7 @@
         <v>167</v>
       </c>
       <c r="F565" s="1"/>
-      <c r="G565" s="8"/>
+      <c r="G565" s="1"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1">
         <v>49.8</v>
@@ -33258,7 +33177,7 @@
         <v>2</v>
       </c>
       <c r="N565" s="1" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="O565" s="1">
         <v>12</v>
@@ -33275,7 +33194,7 @@
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>7</v>
@@ -33290,7 +33209,7 @@
         <v>167</v>
       </c>
       <c r="F566" s="1"/>
-      <c r="G566" s="8"/>
+      <c r="G566" s="1"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1">
         <v>49.8</v>
@@ -33308,7 +33227,7 @@
         <v>3</v>
       </c>
       <c r="N566" s="1" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="O566" s="1">
         <v>12</v>
@@ -33325,7 +33244,7 @@
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>7</v>
@@ -33340,7 +33259,7 @@
         <v>167</v>
       </c>
       <c r="F567" s="1"/>
-      <c r="G567" s="8"/>
+      <c r="G567" s="1"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1">
         <v>49.8</v>
@@ -33358,7 +33277,7 @@
         <v>2</v>
       </c>
       <c r="N567" s="1" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="O567" s="1">
         <v>12</v>
@@ -33375,7 +33294,7 @@
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>7</v>
@@ -33390,7 +33309,7 @@
         <v>167</v>
       </c>
       <c r="F568" s="1"/>
-      <c r="G568" s="8"/>
+      <c r="G568" s="1"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1">
         <v>49.8</v>
@@ -33408,7 +33327,7 @@
         <v>5</v>
       </c>
       <c r="N568" s="1" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="O568" s="1">
         <v>12</v>
@@ -33425,7 +33344,7 @@
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>7</v>
@@ -33440,7 +33359,7 @@
         <v>167</v>
       </c>
       <c r="F569" s="1"/>
-      <c r="G569" s="8"/>
+      <c r="G569" s="1"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1" t="s">
         <v>167</v>
@@ -33449,7 +33368,7 @@
         <v>167</v>
       </c>
       <c r="K569" s="1" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="L569" s="1" t="s">
         <v>71</v>
@@ -33458,7 +33377,7 @@
         <v>4</v>
       </c>
       <c r="N569" s="6" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="O569" s="1">
         <v>2</v>
@@ -33475,7 +33394,7 @@
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>7</v>
@@ -33490,7 +33409,7 @@
         <v>167</v>
       </c>
       <c r="F570" s="1"/>
-      <c r="G570" s="8"/>
+      <c r="G570" s="1"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1">
         <v>27.9</v>
@@ -33499,7 +33418,7 @@
         <v>270</v>
       </c>
       <c r="K570" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L570" s="1" t="s">
         <v>71</v>
@@ -33508,7 +33427,7 @@
         <v>12</v>
       </c>
       <c r="N570" s="1" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="O570" s="1">
         <v>2</v>
@@ -33525,7 +33444,7 @@
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>7</v>
@@ -33540,7 +33459,7 @@
         <v>167</v>
       </c>
       <c r="F571" s="1"/>
-      <c r="G571" s="8"/>
+      <c r="G571" s="1"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1">
         <v>40</v>
@@ -33558,7 +33477,7 @@
         <v>5</v>
       </c>
       <c r="N571" s="1" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="O571" s="1">
         <v>4</v>
@@ -33575,7 +33494,7 @@
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>7</v>
@@ -33590,7 +33509,7 @@
         <v>167</v>
       </c>
       <c r="F572" s="1"/>
-      <c r="G572" s="8"/>
+      <c r="G572" s="1"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1">
         <v>40</v>
@@ -33608,7 +33527,7 @@
         <v>2</v>
       </c>
       <c r="N572" s="1" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="O572" s="1">
         <v>4</v>
@@ -33625,7 +33544,7 @@
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>7</v>
@@ -33640,7 +33559,7 @@
         <v>167</v>
       </c>
       <c r="F573" s="1"/>
-      <c r="G573" s="8"/>
+      <c r="G573" s="1"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1">
         <v>52</v>
@@ -33649,7 +33568,7 @@
         <v>207</v>
       </c>
       <c r="K573" s="1" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="L573" s="1" t="s">
         <v>71</v>
@@ -33658,7 +33577,7 @@
         <v>2</v>
       </c>
       <c r="N573" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="O573" s="1">
         <v>10</v>
@@ -33675,7 +33594,7 @@
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>7</v>
@@ -33690,7 +33609,7 @@
         <v>167</v>
       </c>
       <c r="F574" s="1"/>
-      <c r="G574" s="8"/>
+      <c r="G574" s="1"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1">
         <v>52</v>
@@ -33708,7 +33627,7 @@
         <v>6</v>
       </c>
       <c r="N574" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="O574" s="1">
         <v>10</v>
@@ -33725,7 +33644,7 @@
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>7</v>
@@ -33740,7 +33659,7 @@
         <v>167</v>
       </c>
       <c r="F575" s="1"/>
-      <c r="G575" s="8"/>
+      <c r="G575" s="1"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1">
         <v>52</v>
@@ -33758,7 +33677,7 @@
         <v>2</v>
       </c>
       <c r="N575" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="O575" s="1">
         <v>10</v>
@@ -33775,7 +33694,7 @@
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>7</v>
@@ -33790,7 +33709,7 @@
         <v>167</v>
       </c>
       <c r="F576" s="1"/>
-      <c r="G576" s="8"/>
+      <c r="G576" s="1"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1">
         <v>52</v>
@@ -33799,7 +33718,7 @@
         <v>207</v>
       </c>
       <c r="K576" s="1" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="L576" s="1" t="s">
         <v>164</v>
@@ -33808,7 +33727,7 @@
         <v>3</v>
       </c>
       <c r="N576" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="O576" s="1">
         <v>10</v>
@@ -33825,7 +33744,7 @@
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>7</v>
@@ -33840,7 +33759,7 @@
         <v>167</v>
       </c>
       <c r="F577" s="1"/>
-      <c r="G577" s="8"/>
+      <c r="G577" s="1"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1">
         <v>52</v>
@@ -33849,7 +33768,7 @@
         <v>207</v>
       </c>
       <c r="K577" s="1" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="L577" s="1" t="s">
         <v>71</v>
@@ -33858,7 +33777,7 @@
         <v>2</v>
       </c>
       <c r="N577" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="O577" s="1">
         <v>10</v>
@@ -33875,7 +33794,7 @@
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>7</v>
@@ -33890,7 +33809,7 @@
         <v>167</v>
       </c>
       <c r="F578" s="1"/>
-      <c r="G578" s="8"/>
+      <c r="G578" s="1"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1">
         <v>29.3</v>
@@ -33908,7 +33827,7 @@
         <v>9</v>
       </c>
       <c r="N578" s="1" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="O578" s="1">
         <v>2</v>
@@ -33925,7 +33844,7 @@
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>7</v>
@@ -33940,7 +33859,7 @@
         <v>167</v>
       </c>
       <c r="F579" s="1"/>
-      <c r="G579" s="8"/>
+      <c r="G579" s="1"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1">
         <v>43.8</v>
@@ -33958,7 +33877,7 @@
         <v>1</v>
       </c>
       <c r="N579" s="1" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="O579" s="1">
         <v>4</v>
@@ -33975,7 +33894,7 @@
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>7</v>
@@ -33990,7 +33909,7 @@
         <v>167</v>
       </c>
       <c r="F580" s="1"/>
-      <c r="G580" s="8"/>
+      <c r="G580" s="1"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1">
         <v>43.8</v>
@@ -34008,7 +33927,7 @@
         <v>16</v>
       </c>
       <c r="N580" s="1" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="O580" s="1">
         <v>4</v>
@@ -34025,7 +33944,7 @@
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>7</v>
@@ -34040,7 +33959,7 @@
         <v>167</v>
       </c>
       <c r="F581" s="1"/>
-      <c r="G581" s="8"/>
+      <c r="G581" s="1"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1">
         <v>50.4</v>
@@ -34058,7 +33977,7 @@
         <v>9</v>
       </c>
       <c r="N581" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="O581" s="1">
         <v>12</v>
@@ -34075,7 +33994,7 @@
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>7</v>
@@ -34090,7 +34009,7 @@
         <v>167</v>
       </c>
       <c r="F582" s="1"/>
-      <c r="G582" s="8"/>
+      <c r="G582" s="1"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1">
         <v>50.4</v>
@@ -34108,7 +34027,7 @@
         <v>5</v>
       </c>
       <c r="N582" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="O582" s="1">
         <v>12</v>
@@ -34125,7 +34044,7 @@
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>7</v>
@@ -34140,7 +34059,7 @@
         <v>167</v>
       </c>
       <c r="F583" s="1"/>
-      <c r="G583" s="8"/>
+      <c r="G583" s="1"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1">
         <v>50.4</v>
@@ -34158,7 +34077,7 @@
         <v>3</v>
       </c>
       <c r="N583" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="O583" s="1">
         <v>12</v>
@@ -34175,7 +34094,7 @@
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>7</v>
@@ -34190,7 +34109,7 @@
         <v>167</v>
       </c>
       <c r="F584" s="1"/>
-      <c r="G584" s="8"/>
+      <c r="G584" s="1"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1">
         <v>50.4</v>
@@ -34208,7 +34127,7 @@
         <v>2</v>
       </c>
       <c r="N584" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="O584" s="1">
         <v>12</v>
@@ -34225,7 +34144,7 @@
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>7</v>
@@ -34240,7 +34159,7 @@
         <v>167</v>
       </c>
       <c r="F585" s="1"/>
-      <c r="G585" s="8"/>
+      <c r="G585" s="1"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1">
         <v>50.4</v>
@@ -34258,7 +34177,7 @@
         <v>5</v>
       </c>
       <c r="N585" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="O585" s="1">
         <v>12</v>
@@ -34275,7 +34194,7 @@
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>7</v>
@@ -34290,7 +34209,7 @@
         <v>167</v>
       </c>
       <c r="F586" s="1"/>
-      <c r="G586" s="8"/>
+      <c r="G586" s="1"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1">
         <v>50.4</v>
@@ -34308,7 +34227,7 @@
         <v>3</v>
       </c>
       <c r="N586" s="1" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="O586" s="1">
         <v>12</v>
@@ -34325,7 +34244,7 @@
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>7</v>
@@ -34340,7 +34259,7 @@
         <v>167</v>
       </c>
       <c r="F587" s="1"/>
-      <c r="G587" s="8"/>
+      <c r="G587" s="1"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1">
         <v>46.4</v>
@@ -34358,7 +34277,7 @@
         <v>3</v>
       </c>
       <c r="N587" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O587" s="1">
         <v>20</v>
@@ -34375,7 +34294,7 @@
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>7</v>
@@ -34390,7 +34309,7 @@
         <v>167</v>
       </c>
       <c r="F588" s="1"/>
-      <c r="G588" s="8"/>
+      <c r="G588" s="1"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1">
         <v>46.4</v>
@@ -34408,7 +34327,7 @@
         <v>4</v>
       </c>
       <c r="N588" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O588" s="1">
         <v>20</v>
@@ -34425,7 +34344,7 @@
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>7</v>
@@ -34440,7 +34359,7 @@
         <v>167</v>
       </c>
       <c r="F589" s="1"/>
-      <c r="G589" s="8"/>
+      <c r="G589" s="1"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1">
         <v>46.4</v>
@@ -34458,7 +34377,7 @@
         <v>3</v>
       </c>
       <c r="N589" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O589" s="1">
         <v>20</v>
@@ -34475,7 +34394,7 @@
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>7</v>
@@ -34490,7 +34409,7 @@
         <v>167</v>
       </c>
       <c r="F590" s="1"/>
-      <c r="G590" s="8"/>
+      <c r="G590" s="1"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1">
         <v>46.4</v>
@@ -34508,7 +34427,7 @@
         <v>4</v>
       </c>
       <c r="N590" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O590" s="1">
         <v>20</v>
@@ -34525,7 +34444,7 @@
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>7</v>
@@ -34540,7 +34459,7 @@
         <v>167</v>
       </c>
       <c r="F591" s="1"/>
-      <c r="G591" s="8"/>
+      <c r="G591" s="1"/>
       <c r="H591" s="1"/>
       <c r="I591" s="1">
         <v>46.4</v>
@@ -34558,7 +34477,7 @@
         <v>14</v>
       </c>
       <c r="N591" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O591" s="1">
         <v>20</v>
@@ -34575,7 +34494,7 @@
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>7</v>
@@ -34590,7 +34509,7 @@
         <v>167</v>
       </c>
       <c r="F592" s="1"/>
-      <c r="G592" s="8"/>
+      <c r="G592" s="1"/>
       <c r="H592" s="1"/>
       <c r="I592" s="1">
         <v>46.4</v>
@@ -34608,7 +34527,7 @@
         <v>5</v>
       </c>
       <c r="N592" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O592" s="1">
         <v>20</v>
@@ -34625,7 +34544,7 @@
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>7</v>
@@ -34640,7 +34559,7 @@
         <v>167</v>
       </c>
       <c r="F593" s="1"/>
-      <c r="G593" s="8"/>
+      <c r="G593" s="1"/>
       <c r="H593" s="1"/>
       <c r="I593" s="1">
         <v>46.4</v>
@@ -34658,7 +34577,7 @@
         <v>3</v>
       </c>
       <c r="N593" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O593" s="1">
         <v>20</v>
@@ -34675,7 +34594,7 @@
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>7</v>
@@ -34692,7 +34611,7 @@
       <c r="F594" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G594" s="8" t="s">
+      <c r="G594" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H594" s="1" t="s">
@@ -34731,7 +34650,7 @@
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>7</v>
@@ -34746,7 +34665,7 @@
         <v>167</v>
       </c>
       <c r="F595" s="1"/>
-      <c r="G595" s="8"/>
+      <c r="G595" s="1"/>
       <c r="H595" s="1"/>
       <c r="I595" s="1">
         <v>46.4</v>
@@ -34764,7 +34683,7 @@
         <v>6</v>
       </c>
       <c r="N595" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O595" s="1">
         <v>20</v>
@@ -34781,7 +34700,7 @@
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>7</v>
@@ -34796,7 +34715,7 @@
         <v>167</v>
       </c>
       <c r="F596" s="1"/>
-      <c r="G596" s="8"/>
+      <c r="G596" s="1"/>
       <c r="H596" s="1"/>
       <c r="I596" s="1">
         <v>46.4</v>
@@ -34814,7 +34733,7 @@
         <v>2</v>
       </c>
       <c r="N596" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O596" s="1">
         <v>20</v>
@@ -34831,7 +34750,7 @@
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>7</v>
@@ -34846,7 +34765,7 @@
         <v>167</v>
       </c>
       <c r="F597" s="1"/>
-      <c r="G597" s="8"/>
+      <c r="G597" s="1"/>
       <c r="H597" s="1"/>
       <c r="I597" s="1">
         <v>46.4</v>
@@ -34864,7 +34783,7 @@
         <v>4</v>
       </c>
       <c r="N597" s="1" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="O597" s="1">
         <v>20</v>
@@ -34881,7 +34800,7 @@
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>7</v>
@@ -34896,7 +34815,7 @@
         <v>167</v>
       </c>
       <c r="F598" s="1"/>
-      <c r="G598" s="8"/>
+      <c r="G598" s="1"/>
       <c r="H598" s="1"/>
       <c r="I598" s="1">
         <v>45</v>
@@ -34914,7 +34833,7 @@
         <v>4</v>
       </c>
       <c r="N598" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O598" s="1">
         <v>14</v>
@@ -34931,7 +34850,7 @@
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>7</v>
@@ -34946,7 +34865,7 @@
         <v>167</v>
       </c>
       <c r="F599" s="1"/>
-      <c r="G599" s="8"/>
+      <c r="G599" s="1"/>
       <c r="H599" s="1"/>
       <c r="I599" s="1">
         <v>45</v>
@@ -34964,7 +34883,7 @@
         <v>4</v>
       </c>
       <c r="N599" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O599" s="1">
         <v>14</v>
@@ -34981,7 +34900,7 @@
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>7</v>
@@ -34996,7 +34915,7 @@
         <v>167</v>
       </c>
       <c r="F600" s="1"/>
-      <c r="G600" s="8"/>
+      <c r="G600" s="1"/>
       <c r="H600" s="1"/>
       <c r="I600" s="1">
         <v>45</v>
@@ -35005,7 +34924,7 @@
         <v>209</v>
       </c>
       <c r="K600" s="1" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="L600" s="1" t="s">
         <v>71</v>
@@ -35014,7 +34933,7 @@
         <v>5</v>
       </c>
       <c r="N600" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O600" s="1">
         <v>14</v>
@@ -35031,7 +34950,7 @@
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>7</v>
@@ -35046,7 +34965,7 @@
         <v>167</v>
       </c>
       <c r="F601" s="1"/>
-      <c r="G601" s="8"/>
+      <c r="G601" s="1"/>
       <c r="H601" s="1"/>
       <c r="I601" s="1">
         <v>45</v>
@@ -35064,7 +34983,7 @@
         <v>4</v>
       </c>
       <c r="N601" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O601" s="1">
         <v>14</v>
@@ -35081,7 +35000,7 @@
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>7</v>
@@ -35096,7 +35015,7 @@
         <v>167</v>
       </c>
       <c r="F602" s="1"/>
-      <c r="G602" s="8"/>
+      <c r="G602" s="1"/>
       <c r="H602" s="1"/>
       <c r="I602" s="1">
         <v>45</v>
@@ -35114,7 +35033,7 @@
         <v>2</v>
       </c>
       <c r="N602" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O602" s="1">
         <v>14</v>
@@ -35131,7 +35050,7 @@
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>7</v>
@@ -35146,7 +35065,7 @@
         <v>167</v>
       </c>
       <c r="F603" s="1"/>
-      <c r="G603" s="8"/>
+      <c r="G603" s="1"/>
       <c r="H603" s="1"/>
       <c r="I603" s="1">
         <v>45</v>
@@ -35164,7 +35083,7 @@
         <v>2</v>
       </c>
       <c r="N603" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O603" s="1">
         <v>14</v>
@@ -35181,7 +35100,7 @@
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>7</v>
@@ -35196,7 +35115,7 @@
         <v>167</v>
       </c>
       <c r="F604" s="1"/>
-      <c r="G604" s="8"/>
+      <c r="G604" s="1"/>
       <c r="H604" s="1"/>
       <c r="I604" s="1">
         <v>45</v>
@@ -35214,7 +35133,7 @@
         <v>6</v>
       </c>
       <c r="N604" s="1" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="O604" s="1">
         <v>14</v>
@@ -35231,7 +35150,7 @@
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>7</v>
@@ -35246,7 +35165,7 @@
         <v>167</v>
       </c>
       <c r="F605" s="1"/>
-      <c r="G605" s="8"/>
+      <c r="G605" s="1"/>
       <c r="H605" s="1"/>
       <c r="I605" s="1">
         <v>46.9</v>
@@ -35264,7 +35183,7 @@
         <v>4</v>
       </c>
       <c r="N605" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="O605" s="1">
         <v>12</v>
@@ -35281,7 +35200,7 @@
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>7</v>
@@ -35296,7 +35215,7 @@
         <v>167</v>
       </c>
       <c r="F606" s="1"/>
-      <c r="G606" s="8"/>
+      <c r="G606" s="1"/>
       <c r="H606" s="1"/>
       <c r="I606" s="1">
         <v>46.9</v>
@@ -35314,7 +35233,7 @@
         <v>6</v>
       </c>
       <c r="N606" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="O606" s="1">
         <v>12</v>
@@ -35331,7 +35250,7 @@
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>7</v>
@@ -35346,7 +35265,7 @@
         <v>167</v>
       </c>
       <c r="F607" s="1"/>
-      <c r="G607" s="8"/>
+      <c r="G607" s="1"/>
       <c r="H607" s="1"/>
       <c r="I607" s="1">
         <v>46.9</v>
@@ -35355,7 +35274,7 @@
         <v>204</v>
       </c>
       <c r="K607" s="1" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L607" s="1" t="s">
         <v>71</v>
@@ -35364,7 +35283,7 @@
         <v>2</v>
       </c>
       <c r="N607" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="O607" s="1">
         <v>12</v>
@@ -35381,7 +35300,7 @@
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>7</v>
@@ -35396,7 +35315,7 @@
         <v>167</v>
       </c>
       <c r="F608" s="1"/>
-      <c r="G608" s="8"/>
+      <c r="G608" s="1"/>
       <c r="H608" s="1"/>
       <c r="I608" s="1">
         <v>46.9</v>
@@ -35414,7 +35333,7 @@
         <v>3</v>
       </c>
       <c r="N608" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="O608" s="1">
         <v>12</v>
@@ -35431,7 +35350,7 @@
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>7</v>
@@ -35446,7 +35365,7 @@
         <v>167</v>
       </c>
       <c r="F609" s="1"/>
-      <c r="G609" s="8"/>
+      <c r="G609" s="1"/>
       <c r="H609" s="1"/>
       <c r="I609" s="1">
         <v>46.9</v>
@@ -35464,7 +35383,7 @@
         <v>1</v>
       </c>
       <c r="N609" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="O609" s="1">
         <v>12</v>
@@ -35481,7 +35400,7 @@
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>7</v>
@@ -35496,7 +35415,7 @@
         <v>167</v>
       </c>
       <c r="F610" s="1"/>
-      <c r="G610" s="8"/>
+      <c r="G610" s="1"/>
       <c r="H610" s="1"/>
       <c r="I610" s="1">
         <v>46.9</v>
@@ -35514,7 +35433,7 @@
         <v>1</v>
       </c>
       <c r="N610" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="O610" s="1">
         <v>12</v>
